--- a/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -794,7 +794,7 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.2124887381168874</v>
+        <v>0.2042963208389632</v>
       </c>
       <c r="D4">
         <v>0.00151221894312219</v>
@@ -806,22 +806,22 @@
         <v>-0.2237960383379604</v>
       </c>
       <c r="I4">
-        <v>-0.1042602257146023</v>
+        <v>-0.1042604296066043</v>
       </c>
       <c r="J4">
-        <v>0.02090661255411157</v>
+        <v>0.02621457142192031</v>
       </c>
       <c r="K4">
-        <v>0.2597970087059701</v>
+        <v>0.2489859747898597</v>
       </c>
       <c r="L4">
-        <v>0.2597970087059701</v>
+        <v>0.2489859747898597</v>
       </c>
       <c r="M4">
-        <v>0.2597970087059701</v>
+        <v>0.2489859747898597</v>
       </c>
       <c r="O4">
-        <v>0.2597970087059701</v>
+        <v>0.2489859747898597</v>
       </c>
       <c r="P4">
         <v>0.07774314824143148</v>
@@ -845,7 +845,7 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.002037661772376618</v>
+        <v>-0.002466663108666631</v>
       </c>
       <c r="D5">
         <v>0.0009778538137785381</v>
@@ -857,22 +857,22 @@
         <v>0.005879037262790373</v>
       </c>
       <c r="I5">
-        <v>0.0009594682775946828</v>
+        <v>0.0009594823775948238</v>
       </c>
       <c r="J5">
-        <v>-0.003798818549693562</v>
+        <v>-0.006131584926453814</v>
       </c>
       <c r="K5">
-        <v>-0.003712792645127927</v>
+        <v>-0.00356565200365652</v>
       </c>
       <c r="L5">
-        <v>-0.003712792645127927</v>
+        <v>-0.00356565200365652</v>
       </c>
       <c r="M5">
-        <v>-0.003712792645127927</v>
+        <v>-0.00356565200365652</v>
       </c>
       <c r="O5">
-        <v>-0.003712792645127927</v>
+        <v>-0.00356565200365652</v>
       </c>
       <c r="P5">
         <v>-0.002511713641117136</v>
@@ -896,7 +896,7 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.4093589170215892</v>
+        <v>0.3912730639687306</v>
       </c>
       <c r="D6">
         <v>-0.02621256331012563</v>
@@ -908,22 +908,22 @@
         <v>0.0004960964449609644</v>
       </c>
       <c r="I6">
-        <v>-0.5934875248628751</v>
+        <v>-0.593487703578877</v>
       </c>
       <c r="J6">
-        <v>0.002097819573576294</v>
+        <v>-0.001753419506580116</v>
       </c>
       <c r="K6">
-        <v>0.02186745137067451</v>
+        <v>0.02169913532499135</v>
       </c>
       <c r="L6">
-        <v>0.02186745137067451</v>
+        <v>0.02169913532499135</v>
       </c>
       <c r="M6">
-        <v>0.02186745137067451</v>
+        <v>0.02169913532499135</v>
       </c>
       <c r="O6">
-        <v>0.02186745137067451</v>
+        <v>0.02169913532499135</v>
       </c>
       <c r="P6">
         <v>-0.006739857487398575</v>
@@ -947,7 +947,7 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.00140394499403945</v>
+        <v>0.002586130501861305</v>
       </c>
       <c r="D7">
         <v>0.02194901197549012</v>
@@ -959,22 +959,22 @@
         <v>-0.001487543642875436</v>
       </c>
       <c r="I7">
-        <v>0.0218113797141138</v>
+        <v>0.02181123497011235</v>
       </c>
       <c r="J7">
-        <v>-0.007700585732907108</v>
+        <v>-0.01054097326326876</v>
       </c>
       <c r="K7">
-        <v>0.001210982064109821</v>
+        <v>0.0009284171852841719</v>
       </c>
       <c r="L7">
-        <v>0.001210982064109821</v>
+        <v>0.0009284171852841719</v>
       </c>
       <c r="M7">
-        <v>0.001210982064109821</v>
+        <v>0.0009284171852841719</v>
       </c>
       <c r="O7">
-        <v>0.001210982064109821</v>
+        <v>0.0009284171852841719</v>
       </c>
       <c r="P7">
         <v>0.003912168159121682</v>
@@ -998,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.4256030134040301</v>
+        <v>0.4044321852963219</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1010,22 +1010,22 @@
         <v>0.01969303758493038</v>
       </c>
       <c r="I8">
-        <v>0.757591210491912</v>
+        <v>0.7575911078919112</v>
       </c>
       <c r="J8">
-        <v>0.0236717723187604</v>
+        <v>0.02934956890093197</v>
       </c>
       <c r="K8">
-        <v>-0.02095882474158825</v>
+        <v>-0.02002803471228035</v>
       </c>
       <c r="L8">
-        <v>-0.02095882474158825</v>
+        <v>-0.02002803471228035</v>
       </c>
       <c r="M8">
-        <v>-0.02095882474158825</v>
+        <v>-0.02002803471228035</v>
       </c>
       <c r="O8">
-        <v>-0.02095882474158825</v>
+        <v>-0.02002803471228035</v>
       </c>
       <c r="P8">
         <v>-0.01239048607590486</v>
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-0.003777382489773825</v>
+        <v>-0.004291599486915995</v>
       </c>
       <c r="D9">
         <v>-0.009849915098499151</v>
@@ -1063,22 +1063,22 @@
         <v>0.00704871203848712</v>
       </c>
       <c r="I9">
-        <v>-1.623128416231284E-05</v>
+        <v>-1.628527216285272E-05</v>
       </c>
       <c r="J9">
-        <v>-0.004975143717819961</v>
+        <v>-0.002825169554130037</v>
       </c>
       <c r="K9">
-        <v>0.01713730397137304</v>
+        <v>0.01721972713619727</v>
       </c>
       <c r="L9">
-        <v>0.01713730397137304</v>
+        <v>0.01721972713619727</v>
       </c>
       <c r="M9">
-        <v>0.01713730397137304</v>
+        <v>0.01721972713619727</v>
       </c>
       <c r="O9">
-        <v>0.01713730397137304</v>
+        <v>0.01721972713619727</v>
       </c>
       <c r="P9">
         <v>-0.009827868218278682</v>
@@ -1104,7 +1104,7 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.4121339264693393</v>
+        <v>0.4917730737697307</v>
       </c>
       <c r="D10">
         <v>-0.006061106124611061</v>
@@ -1116,22 +1116,22 @@
         <v>0.0008407234404072344</v>
       </c>
       <c r="I10">
-        <v>-0.01242176723221767</v>
+        <v>-0.01242174911221749</v>
       </c>
       <c r="J10">
-        <v>0.002735286333439931</v>
+        <v>0.002170362167652028</v>
       </c>
       <c r="K10">
-        <v>0.01288245762882458</v>
+        <v>0.01286719205667192</v>
       </c>
       <c r="L10">
-        <v>0.01288245762882458</v>
+        <v>0.01286719205667192</v>
       </c>
       <c r="M10">
-        <v>0.01288245762882458</v>
+        <v>0.01286719205667192</v>
       </c>
       <c r="O10">
-        <v>0.01288245762882458</v>
+        <v>0.01286719205667192</v>
       </c>
       <c r="P10">
         <v>-0.00402607105626071</v>
@@ -1157,7 +1157,7 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>-0.009326340417263405</v>
+        <v>-0.007726255337262553</v>
       </c>
       <c r="D11">
         <v>-1.081171210811712E-05</v>
@@ -1169,22 +1169,22 @@
         <v>-0.01990685052706851</v>
       </c>
       <c r="I11">
-        <v>0.0005359745333597453</v>
+        <v>0.0005358972413589723</v>
       </c>
       <c r="J11">
-        <v>-0.004469903618421941</v>
+        <v>-0.001777910664785035</v>
       </c>
       <c r="K11">
-        <v>-0.01857744300577443</v>
+        <v>-0.01918706599187066</v>
       </c>
       <c r="L11">
-        <v>-0.01857744300577443</v>
+        <v>-0.01918706599187066</v>
       </c>
       <c r="M11">
-        <v>-0.01857744300577443</v>
+        <v>-0.01918706599187066</v>
       </c>
       <c r="O11">
-        <v>-0.01857744300577443</v>
+        <v>-0.01918706599187066</v>
       </c>
       <c r="P11">
         <v>0.02213618788136188</v>
@@ -1210,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.02864308405043084</v>
+        <v>0.02913485628334856</v>
       </c>
       <c r="D12">
         <v>0.01840892352408923</v>
@@ -1222,22 +1222,22 @@
         <v>-0.01228217270682173</v>
       </c>
       <c r="I12">
-        <v>0.006148897345488973</v>
+        <v>0.006148955365489554</v>
       </c>
       <c r="J12">
-        <v>0.002611608704754372</v>
+        <v>0.001914893749719578</v>
       </c>
       <c r="K12">
-        <v>-0.006903017817030178</v>
+        <v>-0.007124750063247501</v>
       </c>
       <c r="L12">
-        <v>-0.006903017817030178</v>
+        <v>-0.007124750063247501</v>
       </c>
       <c r="M12">
-        <v>-0.006903017817030178</v>
+        <v>-0.007124750063247501</v>
       </c>
       <c r="O12">
-        <v>-0.006903017817030178</v>
+        <v>-0.007124750063247501</v>
       </c>
       <c r="P12">
         <v>0.007736657273366573</v>
@@ -1263,7 +1263,7 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.1427953399079534</v>
+        <v>0.1366221313182213</v>
       </c>
       <c r="D13">
         <v>-0.02004360854043609</v>
@@ -1275,22 +1275,22 @@
         <v>-0.0007342889833428899</v>
       </c>
       <c r="I13">
-        <v>-0.008277842350778424</v>
+        <v>-0.008277786238777863</v>
       </c>
       <c r="J13">
-        <v>0.01306971946293452</v>
+        <v>0.009253558204651296</v>
       </c>
       <c r="K13">
-        <v>0.02324426513244265</v>
+        <v>0.02251374879313749</v>
       </c>
       <c r="L13">
-        <v>0.02324426513244265</v>
+        <v>0.02251374879313749</v>
       </c>
       <c r="M13">
-        <v>0.02324426513244265</v>
+        <v>0.02251374879313749</v>
       </c>
       <c r="O13">
-        <v>0.02324426513244265</v>
+        <v>0.02251374879313749</v>
       </c>
       <c r="P13">
         <v>0.0003142850791428508</v>
@@ -1314,7 +1314,7 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.5623744902197448</v>
+        <v>-0.5360326631723266</v>
       </c>
       <c r="D14">
         <v>-0.003031562910315629</v>
@@ -1326,22 +1326,22 @@
         <v>-0.004354777219547772</v>
       </c>
       <c r="I14">
-        <v>-0.01456967232169672</v>
+        <v>-0.0145696397296964</v>
       </c>
       <c r="J14">
-        <v>0.0005222292869099947</v>
+        <v>-0.003004356798457322</v>
       </c>
       <c r="K14">
-        <v>0.002057053448570535</v>
+        <v>0.001933692619336926</v>
       </c>
       <c r="L14">
-        <v>0.002057053448570535</v>
+        <v>0.001933692619336926</v>
       </c>
       <c r="M14">
-        <v>0.002057053448570535</v>
+        <v>0.001933692619336926</v>
       </c>
       <c r="O14">
-        <v>0.002057053448570535</v>
+        <v>0.001933692619336926</v>
       </c>
       <c r="P14">
         <v>0.004533751797337518</v>
@@ -1367,7 +1367,7 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.006022914312229143</v>
+        <v>0.005261682460616825</v>
       </c>
       <c r="D15">
         <v>-0.002824025776240258</v>
@@ -1379,22 +1379,22 @@
         <v>0.006996188241961882</v>
       </c>
       <c r="I15">
-        <v>-0.004858883808588838</v>
+        <v>-0.004858887864588878</v>
       </c>
       <c r="J15">
-        <v>0.0052786723140288</v>
+        <v>0.001416599338358591</v>
       </c>
       <c r="K15">
-        <v>0.002126422413264224</v>
+        <v>0.002568829057688291</v>
       </c>
       <c r="L15">
-        <v>0.002126422413264224</v>
+        <v>0.002568829057688291</v>
       </c>
       <c r="M15">
-        <v>0.002126422413264224</v>
+        <v>0.002568829057688291</v>
       </c>
       <c r="O15">
-        <v>0.002126422413264224</v>
+        <v>0.002568829057688291</v>
       </c>
       <c r="P15">
         <v>-0.007598146551981466</v>
@@ -1420,7 +1420,7 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>0.0001988663779886638</v>
+        <v>-0.0002957929709579297</v>
       </c>
       <c r="D16">
         <v>0.0007758225677582258</v>
@@ -1432,22 +1432,22 @@
         <v>-0.01976063660960637</v>
       </c>
       <c r="I16">
-        <v>-0.005532099151320991</v>
+        <v>-0.005532173443321734</v>
       </c>
       <c r="J16">
-        <v>-0.003021261087887127</v>
+        <v>-0.003993640144971197</v>
       </c>
       <c r="K16">
-        <v>-0.0299713394517134</v>
+        <v>-0.03010376624503766</v>
       </c>
       <c r="L16">
-        <v>-0.0299713394517134</v>
+        <v>-0.03010376624503766</v>
       </c>
       <c r="M16">
-        <v>-0.0299713394517134</v>
+        <v>-0.03010376624503766</v>
       </c>
       <c r="O16">
-        <v>-0.0299713394517134</v>
+        <v>-0.03010376624503766</v>
       </c>
       <c r="P16">
         <v>0.02103858497438585</v>
@@ -1473,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.02055630428556304</v>
+        <v>0.01854354354543544</v>
       </c>
       <c r="D17">
         <v>0.01176501519365015</v>
@@ -1485,22 +1485,22 @@
         <v>0.01384787127047871</v>
       </c>
       <c r="I17">
-        <v>0.0003873433238734332</v>
+        <v>0.0003871840118718401</v>
       </c>
       <c r="J17">
-        <v>-0.002413715369253441</v>
+        <v>-0.001896491476360719</v>
       </c>
       <c r="K17">
-        <v>0.00298424204984242</v>
+        <v>0.003731072161310721</v>
       </c>
       <c r="L17">
-        <v>0.00298424204984242</v>
+        <v>0.003731072161310721</v>
       </c>
       <c r="M17">
-        <v>0.00298424204984242</v>
+        <v>0.003731072161310721</v>
       </c>
       <c r="O17">
-        <v>0.00298424204984242</v>
+        <v>0.003731072161310721</v>
       </c>
       <c r="P17">
         <v>-0.01388068296680683</v>
@@ -1526,7 +1526,7 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>0.01007600958476009</v>
+        <v>0.01042782756827828</v>
       </c>
       <c r="D18">
         <v>-0.001414514918145149</v>
@@ -1538,22 +1538,22 @@
         <v>-0.00236553101965531</v>
       </c>
       <c r="I18">
-        <v>-0.008125891341258913</v>
+        <v>-0.008125978377259783</v>
       </c>
       <c r="J18">
-        <v>-0.01504565209661703</v>
+        <v>-0.01148247745665357</v>
       </c>
       <c r="K18">
-        <v>0.001706906693069067</v>
+        <v>0.001550612319506123</v>
       </c>
       <c r="L18">
-        <v>0.001706906693069067</v>
+        <v>0.001550612319506123</v>
       </c>
       <c r="M18">
-        <v>0.001706906693069067</v>
+        <v>0.001550612319506123</v>
       </c>
       <c r="O18">
-        <v>0.001706906693069067</v>
+        <v>0.001550612319506123</v>
       </c>
       <c r="P18">
         <v>0.0006709194787091948</v>
@@ -1577,7 +1577,7 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.02351097271910973</v>
+        <v>0.0226820298348203</v>
       </c>
       <c r="D19">
         <v>0.01707790277077903</v>
@@ -1589,22 +1589,22 @@
         <v>-0.002281134166811342</v>
       </c>
       <c r="I19">
-        <v>0.001169804351698044</v>
+        <v>0.001169917679699177</v>
       </c>
       <c r="J19">
-        <v>0.002622425413537111</v>
+        <v>0.0001071697865234147</v>
       </c>
       <c r="K19">
-        <v>0.0007597949715979497</v>
+        <v>0.0007894159758941598</v>
       </c>
       <c r="L19">
-        <v>0.0007597949715979497</v>
+        <v>0.0007894159758941598</v>
       </c>
       <c r="M19">
-        <v>0.0007597949715979497</v>
+        <v>0.0007894159758941598</v>
       </c>
       <c r="O19">
-        <v>0.0007597949715979497</v>
+        <v>0.0007894159758941598</v>
       </c>
       <c r="P19">
         <v>0.0008261221282612214</v>
@@ -1630,7 +1630,7 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.01076754209967542</v>
+        <v>-0.01176117641761176</v>
       </c>
       <c r="D20">
         <v>-0.007641676312416763</v>
@@ -1642,22 +1642,22 @@
         <v>0.009545357279453572</v>
       </c>
       <c r="I20">
-        <v>-0.008993572853935728</v>
+        <v>-0.008993548469935485</v>
       </c>
       <c r="J20">
-        <v>-0.00402230565851109</v>
+        <v>-0.004115639783235447</v>
       </c>
       <c r="K20">
-        <v>0.003839892194398922</v>
+        <v>0.004128706421287064</v>
       </c>
       <c r="L20">
-        <v>0.003839892194398922</v>
+        <v>0.004128706421287064</v>
       </c>
       <c r="M20">
-        <v>0.003839892194398922</v>
+        <v>0.004128706421287064</v>
       </c>
       <c r="O20">
-        <v>0.003839892194398922</v>
+        <v>0.004128706421287064</v>
       </c>
       <c r="P20">
         <v>-0.008298355762983559</v>
@@ -1683,7 +1683,7 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>0.008662773494627735</v>
+        <v>0.006534092261340923</v>
       </c>
       <c r="D21">
         <v>0.004832216064322161</v>
@@ -1695,22 +1695,22 @@
         <v>0.01697240658172407</v>
       </c>
       <c r="I21">
-        <v>0.0142728401507284</v>
+        <v>0.01427267168272672</v>
       </c>
       <c r="J21">
-        <v>0.01344216242161467</v>
+        <v>0.01531894890053971</v>
       </c>
       <c r="K21">
-        <v>0.01472873246728732</v>
+        <v>0.01510952701909527</v>
       </c>
       <c r="L21">
-        <v>0.01472873246728732</v>
+        <v>0.01510952701909527</v>
       </c>
       <c r="M21">
-        <v>0.01472873246728732</v>
+        <v>0.01510952701909527</v>
       </c>
       <c r="O21">
-        <v>0.01472873246728732</v>
+        <v>0.01510952701909527</v>
       </c>
       <c r="P21">
         <v>-0.01650669491706695</v>
@@ -1734,7 +1734,7 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.02378165070981651</v>
+        <v>-0.02360721420807214</v>
       </c>
       <c r="D22">
         <v>-7.972794079727941E-05</v>
@@ -1746,22 +1746,22 @@
         <v>-0.001554454479544545</v>
       </c>
       <c r="I22">
-        <v>0.01109349305093493</v>
+        <v>0.01109335831493358</v>
       </c>
       <c r="J22">
-        <v>-0.009110639510379437</v>
+        <v>-0.006770431106344747</v>
       </c>
       <c r="K22">
-        <v>-0.01584540234245402</v>
+        <v>-0.01562724710427247</v>
       </c>
       <c r="L22">
-        <v>-0.01584540234245402</v>
+        <v>-0.01562724710427247</v>
       </c>
       <c r="M22">
-        <v>-0.01584540234245402</v>
+        <v>-0.01562724710427247</v>
       </c>
       <c r="O22">
-        <v>-0.01584540234245402</v>
+        <v>-0.01562724710427247</v>
       </c>
       <c r="P22">
         <v>0.004223801790238018</v>
@@ -1785,7 +1785,7 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.01460907269009072</v>
+        <v>0.01376058763760588</v>
       </c>
       <c r="D23">
         <v>0.01001911825619118</v>
@@ -1797,22 +1797,22 @@
         <v>0.008923246757232467</v>
       </c>
       <c r="I23">
-        <v>-0.0004645299406452994</v>
+        <v>-0.0004642928446429285</v>
       </c>
       <c r="J23">
-        <v>0.002324639485867461</v>
+        <v>0.002905121579948868</v>
       </c>
       <c r="K23">
-        <v>0.005310097733100977</v>
+        <v>0.00550186199501862</v>
       </c>
       <c r="L23">
-        <v>0.005310097733100977</v>
+        <v>0.00550186199501862</v>
       </c>
       <c r="M23">
-        <v>0.005310097733100977</v>
+        <v>0.00550186199501862</v>
       </c>
       <c r="O23">
-        <v>0.005310097733100977</v>
+        <v>0.00550186199501862</v>
       </c>
       <c r="P23">
         <v>-0.008590882789908829</v>
@@ -1836,7 +1836,7 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>-0.007261849740618498</v>
+        <v>-0.007534459671344596</v>
       </c>
       <c r="D24">
         <v>-0.01110188474701885</v>
@@ -1848,22 +1848,22 @@
         <v>0.003790264921902649</v>
       </c>
       <c r="I24">
-        <v>-0.0116304097283041</v>
+        <v>-0.01163020481630205</v>
       </c>
       <c r="J24">
-        <v>-0.0102526622313386</v>
+        <v>-0.01099381430957487</v>
       </c>
       <c r="K24">
-        <v>0.008512092397120924</v>
+        <v>0.008383855955838558</v>
       </c>
       <c r="L24">
-        <v>0.008512092397120924</v>
+        <v>0.008383855955838558</v>
       </c>
       <c r="M24">
-        <v>0.008512092397120924</v>
+        <v>0.008383855955838558</v>
       </c>
       <c r="O24">
-        <v>0.008512092397120924</v>
+        <v>0.008383855955838558</v>
       </c>
       <c r="P24">
         <v>-0.00377782400577824</v>
@@ -1889,7 +1889,7 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.002987103521871035</v>
+        <v>-0.002710378383103784</v>
       </c>
       <c r="D25">
         <v>0.001704990857049909</v>
@@ -1901,22 +1901,22 @@
         <v>-0.009944915247449154</v>
       </c>
       <c r="I25">
-        <v>-0.004655213326552133</v>
+        <v>-0.004655105122551051</v>
       </c>
       <c r="J25">
-        <v>-0.001279060105551894</v>
+        <v>0.001188812711938744</v>
       </c>
       <c r="K25">
-        <v>-0.01300883260608833</v>
+        <v>-0.01332989259729893</v>
       </c>
       <c r="L25">
-        <v>-0.01300883260608833</v>
+        <v>-0.01332989259729893</v>
       </c>
       <c r="M25">
-        <v>-0.01300883260608833</v>
+        <v>-0.01332989259729893</v>
       </c>
       <c r="O25">
-        <v>-0.01300883260608833</v>
+        <v>-0.01332989259729893</v>
       </c>
       <c r="P25">
         <v>0.0109913902339139</v>
@@ -1940,7 +1940,7 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.00162632498826325</v>
+        <v>0.003872928374729284</v>
       </c>
       <c r="D26">
         <v>-0.01081725564017256</v>
@@ -1952,22 +1952,22 @@
         <v>0.005070566150705661</v>
       </c>
       <c r="I26">
-        <v>-0.01216516170165162</v>
+        <v>-0.01216528214565282</v>
       </c>
       <c r="J26">
-        <v>0.005010947563651064</v>
+        <v>0.00484855530637424</v>
       </c>
       <c r="K26">
-        <v>-0.01759326690793267</v>
+        <v>-0.01684246291242463</v>
       </c>
       <c r="L26">
-        <v>-0.01759326690793267</v>
+        <v>-0.01684246291242463</v>
       </c>
       <c r="M26">
-        <v>-0.01759326690793267</v>
+        <v>-0.01684246291242463</v>
       </c>
       <c r="O26">
-        <v>-0.01759326690793267</v>
+        <v>-0.01684246291242463</v>
       </c>
       <c r="P26">
         <v>-0.003747144889471449</v>
@@ -1993,7 +1993,7 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.006978259617782596</v>
+        <v>0.00725449698054497</v>
       </c>
       <c r="D27">
         <v>-0.001261675212616752</v>
@@ -2005,22 +2005,22 @@
         <v>0.001547708763477088</v>
       </c>
       <c r="I27">
-        <v>-0.001929118879291189</v>
+        <v>-0.001929286591292866</v>
       </c>
       <c r="J27">
-        <v>-0.01485520126640689</v>
+        <v>-0.01154260433650322</v>
       </c>
       <c r="K27">
-        <v>0.004701569411015695</v>
+        <v>0.004433156984331569</v>
       </c>
       <c r="L27">
-        <v>0.004701569411015695</v>
+        <v>0.004433156984331569</v>
       </c>
       <c r="M27">
-        <v>0.004701569411015695</v>
+        <v>0.004433156984331569</v>
       </c>
       <c r="O27">
-        <v>0.004701569411015695</v>
+        <v>0.004433156984331569</v>
       </c>
       <c r="P27">
         <v>-0.002934964145349642</v>
@@ -2044,7 +2044,7 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0.0115030902310309</v>
+        <v>0.009860334746603347</v>
       </c>
       <c r="D28">
         <v>0.01474209685542097</v>
@@ -2056,22 +2056,22 @@
         <v>-0.004355273707552737</v>
       </c>
       <c r="I28">
-        <v>0.002591099737910997</v>
+        <v>0.002591098249910983</v>
       </c>
       <c r="J28">
-        <v>-0.01864981245824012</v>
+        <v>-0.01861955959773728</v>
       </c>
       <c r="K28">
-        <v>0.001023986530239865</v>
+        <v>0.000780893803808938</v>
       </c>
       <c r="L28">
-        <v>0.001023986530239865</v>
+        <v>0.000780893803808938</v>
       </c>
       <c r="M28">
-        <v>0.001023986530239865</v>
+        <v>0.000780893803808938</v>
       </c>
       <c r="O28">
-        <v>0.001023986530239865</v>
+        <v>0.000780893803808938</v>
       </c>
       <c r="P28">
         <v>0.00297569296175693</v>
@@ -2097,7 +2097,7 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>0.005620719536207196</v>
+        <v>0.006224248274242484</v>
       </c>
       <c r="D29">
         <v>-0.005577593131775931</v>
@@ -2109,22 +2109,22 @@
         <v>-0.009326289153262892</v>
       </c>
       <c r="I29">
-        <v>-0.004654131802541318</v>
+        <v>-0.004654144318541443</v>
       </c>
       <c r="J29">
-        <v>0.01145221445973512</v>
+        <v>0.008719915281383588</v>
       </c>
       <c r="K29">
-        <v>0.002939372789393728</v>
+        <v>0.002581202113812021</v>
       </c>
       <c r="L29">
-        <v>0.002939372789393728</v>
+        <v>0.002581202113812021</v>
       </c>
       <c r="M29">
-        <v>0.002939372789393728</v>
+        <v>0.002581202113812021</v>
       </c>
       <c r="O29">
-        <v>0.002939372789393728</v>
+        <v>0.002581202113812021</v>
       </c>
       <c r="P29">
         <v>0.007542418647424186</v>
@@ -2150,7 +2150,7 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.003752317825523179</v>
+        <v>-0.005228580244285803</v>
       </c>
       <c r="D30">
         <v>0.004842115728421158</v>
@@ -2162,22 +2162,22 @@
         <v>0.01608122680081227</v>
       </c>
       <c r="I30">
-        <v>0.005722335033223351</v>
+        <v>0.005722378113223781</v>
       </c>
       <c r="J30">
-        <v>0.02512508696136104</v>
+        <v>0.02597091200544843</v>
       </c>
       <c r="K30">
-        <v>0.0151746402317464</v>
+        <v>0.01566210110462101</v>
       </c>
       <c r="L30">
-        <v>0.0151746402317464</v>
+        <v>0.01566210110462101</v>
       </c>
       <c r="M30">
-        <v>0.0151746402317464</v>
+        <v>0.01566210110462101</v>
       </c>
       <c r="O30">
-        <v>0.0151746402317464</v>
+        <v>0.01566210110462101</v>
       </c>
       <c r="P30">
         <v>-0.01692177046921771</v>
@@ -2203,7 +2203,7 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.005260121380601214</v>
+        <v>-0.004505035725050358</v>
       </c>
       <c r="D31">
         <v>-0.01621171205411712</v>
@@ -2215,22 +2215,22 @@
         <v>-0.01935625642956256</v>
       </c>
       <c r="I31">
-        <v>-0.01272212671922127</v>
+        <v>-0.01272213456722135</v>
       </c>
       <c r="J31">
-        <v>0.0009634501200011218</v>
+        <v>0.0004899604749293014</v>
       </c>
       <c r="K31">
-        <v>-0.006061538160615382</v>
+        <v>-0.006803685692036857</v>
       </c>
       <c r="L31">
-        <v>-0.006061538160615382</v>
+        <v>-0.006803685692036857</v>
       </c>
       <c r="M31">
-        <v>-0.006061538160615382</v>
+        <v>-0.006803685692036857</v>
       </c>
       <c r="O31">
-        <v>-0.006061538160615382</v>
+        <v>-0.006803685692036857</v>
       </c>
       <c r="P31">
         <v>0.01589146461891465</v>
@@ -2256,7 +2256,7 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>0.003484529134845291</v>
+        <v>0.004080551920805519</v>
       </c>
       <c r="D32">
         <v>-0.002000245952002459</v>
@@ -2268,22 +2268,22 @@
         <v>0.005102772111027721</v>
       </c>
       <c r="I32">
-        <v>0.002294739142947391</v>
+        <v>0.002294785162947852</v>
       </c>
       <c r="J32">
-        <v>0.01647335247589202</v>
+        <v>0.01170396115293209</v>
       </c>
       <c r="K32">
-        <v>-0.01095144864151449</v>
+        <v>-0.01059106475791065</v>
       </c>
       <c r="L32">
-        <v>-0.01095144864151449</v>
+        <v>-0.01059106475791065</v>
       </c>
       <c r="M32">
-        <v>-0.01095144864151449</v>
+        <v>-0.01059106475791065</v>
       </c>
       <c r="O32">
-        <v>-0.01095144864151449</v>
+        <v>-0.01059106475791065</v>
       </c>
       <c r="P32">
         <v>-0.00333235802132358</v>
@@ -2309,7 +2309,7 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.1155097766310978</v>
+        <v>0.06551164661511646</v>
       </c>
       <c r="D33">
         <v>0.003653658888536589</v>
@@ -2321,22 +2321,22 @@
         <v>0.9583621794556219</v>
       </c>
       <c r="I33">
-        <v>0.2373024476610245</v>
+        <v>0.2373022220730222</v>
       </c>
       <c r="J33">
-        <v>0.02390519347597039</v>
+        <v>0.05774988419558461</v>
       </c>
       <c r="K33">
-        <v>0.628094596768946</v>
+        <v>0.6572746130007461</v>
       </c>
       <c r="L33">
-        <v>0.628094596768946</v>
+        <v>0.6572746130007461</v>
       </c>
       <c r="M33">
-        <v>0.628094596768946</v>
+        <v>0.6572746130007461</v>
       </c>
       <c r="O33">
-        <v>0.628094596768946</v>
+        <v>0.6572746130007461</v>
       </c>
       <c r="P33">
         <v>-0.9938072509580724</v>
@@ -2362,7 +2362,7 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.011323900253239</v>
+        <v>-0.01218417301384173</v>
       </c>
       <c r="D34">
         <v>-0.00284086194440862</v>
@@ -2374,22 +2374,22 @@
         <v>0.0061320500053205</v>
       </c>
       <c r="I34">
-        <v>0.002873557468735575</v>
+        <v>0.002873783860737839</v>
       </c>
       <c r="J34">
-        <v>-0.01499054314624994</v>
+        <v>-0.01481287785411947</v>
       </c>
       <c r="K34">
-        <v>0.006811062092110621</v>
+        <v>0.007085847850858478</v>
       </c>
       <c r="L34">
-        <v>0.006811062092110621</v>
+        <v>0.007085847850858478</v>
       </c>
       <c r="M34">
-        <v>0.006811062092110621</v>
+        <v>0.007085847850858478</v>
       </c>
       <c r="O34">
-        <v>0.006811062092110621</v>
+        <v>0.007085847850858478</v>
       </c>
       <c r="P34">
         <v>-0.007942921543429217</v>
@@ -2415,7 +2415,7 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>-0.001540631271406313</v>
+        <v>2.084884820848848E-05</v>
       </c>
       <c r="D35">
         <v>0.006341509179415093</v>
@@ -2427,22 +2427,22 @@
         <v>0.009101326423013265</v>
       </c>
       <c r="I35">
-        <v>0.009715520101155202</v>
+        <v>0.009715454113154541</v>
       </c>
       <c r="J35">
-        <v>0.009317425683812447</v>
+        <v>0.007232544386760532</v>
       </c>
       <c r="K35">
-        <v>-0.01280890895608909</v>
+        <v>-0.01208741558487415</v>
       </c>
       <c r="L35">
-        <v>-0.01280890895608909</v>
+        <v>-0.01208741558487415</v>
       </c>
       <c r="M35">
-        <v>-0.01280890895608909</v>
+        <v>-0.01208741558487415</v>
       </c>
       <c r="O35">
-        <v>-0.01280890895608909</v>
+        <v>-0.01208741558487415</v>
       </c>
       <c r="P35">
         <v>-0.008124094089240941</v>
@@ -2468,7 +2468,7 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>0.006496929964969299</v>
+        <v>0.006725880763258808</v>
       </c>
       <c r="D36">
         <v>-0.00246730699267307</v>
@@ -2480,22 +2480,22 @@
         <v>-0.005894708614947087</v>
       </c>
       <c r="I36">
-        <v>-0.002754918687549187</v>
+        <v>-0.002754947571549476</v>
       </c>
       <c r="J36">
-        <v>0.01110347837553724</v>
+        <v>0.01300581210090638</v>
       </c>
       <c r="K36">
-        <v>0.7022862150268621</v>
+        <v>0.6807626074836262</v>
       </c>
       <c r="L36">
-        <v>0.7022862150268621</v>
+        <v>0.6807626074836262</v>
       </c>
       <c r="M36">
-        <v>0.7022862150268621</v>
+        <v>0.6807626074836262</v>
       </c>
       <c r="O36">
-        <v>0.7022862150268621</v>
+        <v>0.6807626074836262</v>
       </c>
       <c r="P36">
         <v>0.03869839265098393</v>
@@ -2521,7 +2521,7 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.005802910534029104</v>
+        <v>0.007530315867303159</v>
       </c>
       <c r="D37">
         <v>-0.01519095769990958</v>
@@ -2533,22 +2533,22 @@
         <v>0.004003371604033716</v>
       </c>
       <c r="I37">
-        <v>-0.008707177599071777</v>
+        <v>-0.008707239531072396</v>
       </c>
       <c r="J37">
-        <v>0.001761904277047283</v>
+        <v>0.004444458801039095</v>
       </c>
       <c r="K37">
-        <v>0.01153621937536219</v>
+        <v>0.01143505287035053</v>
       </c>
       <c r="L37">
-        <v>0.01153621937536219</v>
+        <v>0.01143505287035053</v>
       </c>
       <c r="M37">
-        <v>0.01153621937536219</v>
+        <v>0.01143505287035053</v>
       </c>
       <c r="O37">
-        <v>0.01153621937536219</v>
+        <v>0.01143505287035053</v>
       </c>
       <c r="P37">
         <v>-0.003524574515245745</v>
@@ -2574,7 +2574,7 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01864719685847197</v>
+        <v>-0.01960734215207342</v>
       </c>
       <c r="D38">
         <v>-0.01165142259251423</v>
@@ -2586,22 +2586,22 @@
         <v>0.001003193458031935</v>
       </c>
       <c r="I38">
-        <v>-0.001934897155348971</v>
+        <v>-0.001934842447348425</v>
       </c>
       <c r="J38">
-        <v>-0.0003765668985036081</v>
+        <v>0.001374154571509847</v>
       </c>
       <c r="K38">
-        <v>-0.009357811869578118</v>
+        <v>-0.009114893347148934</v>
       </c>
       <c r="L38">
-        <v>-0.009357811869578118</v>
+        <v>-0.009114893347148934</v>
       </c>
       <c r="M38">
-        <v>-0.009357811869578118</v>
+        <v>-0.009114893347148934</v>
       </c>
       <c r="O38">
-        <v>-0.009357811869578118</v>
+        <v>-0.009114893347148934</v>
       </c>
       <c r="P38">
         <v>-0.0008410775124107751</v>
@@ -2627,7 +2627,7 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.0140021097200211</v>
+        <v>0.01554886192748862</v>
       </c>
       <c r="D39">
         <v>0.007499023610990236</v>
@@ -2639,22 +2639,22 @@
         <v>-0.01622848546228486</v>
       </c>
       <c r="I39">
-        <v>0.01281718234417182</v>
+        <v>0.01281728262817283</v>
       </c>
       <c r="J39">
-        <v>-0.003412371326821249</v>
+        <v>0.0001790456794706237</v>
       </c>
       <c r="K39">
-        <v>-0.01844121239241213</v>
+        <v>-0.01857585696575857</v>
       </c>
       <c r="L39">
-        <v>-0.01844121239241213</v>
+        <v>-0.01857585696575857</v>
       </c>
       <c r="M39">
-        <v>-0.01844121239241213</v>
+        <v>-0.01857585696575857</v>
       </c>
       <c r="O39">
-        <v>-0.01844121239241213</v>
+        <v>-0.01857585696575857</v>
       </c>
       <c r="P39">
         <v>0.01808185370481854</v>
@@ -2680,7 +2680,7 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.005016661094166612</v>
+        <v>-0.005282545528825456</v>
       </c>
       <c r="D40">
         <v>-0.003414632878146329</v>
@@ -2692,22 +2692,22 @@
         <v>-0.01311451241914512</v>
       </c>
       <c r="I40">
-        <v>-0.0038709099987091</v>
+        <v>-0.00387098703870987</v>
       </c>
       <c r="J40">
-        <v>0.006254985701717572</v>
+        <v>0.007365413648800834</v>
       </c>
       <c r="K40">
-        <v>-0.02223094219830942</v>
+        <v>-0.02246567525665675</v>
       </c>
       <c r="L40">
-        <v>-0.02223094219830942</v>
+        <v>-0.02246567525665675</v>
       </c>
       <c r="M40">
-        <v>-0.02223094219830942</v>
+        <v>-0.02246567525665675</v>
       </c>
       <c r="O40">
-        <v>-0.02223094219830942</v>
+        <v>-0.02246567525665675</v>
       </c>
       <c r="P40">
         <v>0.01413958666539587</v>
@@ -2733,7 +2733,7 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.07694452452144525</v>
+        <v>-0.07673949914339499</v>
       </c>
       <c r="D41">
         <v>-0.0122099903780999</v>
@@ -2745,22 +2745,22 @@
         <v>0.01171293880512939</v>
       </c>
       <c r="I41">
-        <v>-0.01910869630708696</v>
+        <v>-0.0191088402590884</v>
       </c>
       <c r="J41">
-        <v>0.001402903334310675</v>
+        <v>0.002512809991928549</v>
       </c>
       <c r="K41">
-        <v>1.7983800179838E-06</v>
+        <v>0.0007747317677473177</v>
       </c>
       <c r="L41">
-        <v>1.7983800179838E-06</v>
+        <v>0.0007747317677473177</v>
       </c>
       <c r="M41">
-        <v>1.7983800179838E-06</v>
+        <v>0.0007747317677473177</v>
       </c>
       <c r="O41">
-        <v>1.7983800179838E-06</v>
+        <v>0.0007747317677473177</v>
       </c>
       <c r="P41">
         <v>-0.01125014531250145</v>

--- a/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Element</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
-  </si>
-  <si>
-    <t>MFPP derivative [USD/MT]</t>
-  </si>
-  <si>
-    <t>Biodiesel production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Ethanol production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Electricity production derivative [kWhr/MT]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption derivative [cf/MT]</t>
-  </si>
-  <si>
-    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>GWP derivative [kg*CO2*eq / USD]</t>
@@ -626,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,30 +645,22 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,2031 +733,2012 @@
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.2042963208389632</v>
+        <v>0.2137863436529117</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01112697495510899</v>
       </c>
       <c r="F4">
-        <v>-0.01679999499599995</v>
+        <v>0.01885204046643814</v>
       </c>
       <c r="G4">
-        <v>-0.2237960383379604</v>
+        <v>-0.2575859019779048</v>
       </c>
       <c r="I4">
-        <v>-0.1042604296066043</v>
+        <v>-0.1091928896905139</v>
       </c>
       <c r="J4">
-        <v>0.02621457142192031</v>
+        <v>0.02157577588300159</v>
       </c>
       <c r="K4">
-        <v>0.2489859747898597</v>
+        <v>0.2204712560854884</v>
       </c>
       <c r="L4">
-        <v>0.2489859747898597</v>
+        <v>0.2204712560854884</v>
       </c>
       <c r="M4">
-        <v>0.2489859747898597</v>
+        <v>0.2204712560854884</v>
       </c>
       <c r="O4">
-        <v>0.2489859747898597</v>
+        <v>0.2204712560854884</v>
       </c>
       <c r="P4">
-        <v>0.07774314824143148</v>
+        <v>0.1122598163634347</v>
       </c>
       <c r="Q4">
-        <v>0.3825946709379467</v>
+        <v>0.370624925345702</v>
       </c>
       <c r="R4">
-        <v>0.3825946709379467</v>
+        <v>0.370624925345702</v>
       </c>
       <c r="S4">
-        <v>0.3825946709379467</v>
+        <v>0.370624925345702</v>
       </c>
       <c r="T4">
-        <v>0.3825946709379467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.370624925345702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>-0.002466663108666631</v>
+        <v>0.0158908028811063</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>-0.001765577465087148</v>
       </c>
       <c r="F5">
-        <v>-0.0004931769889317699</v>
+        <v>0.001320546442508538</v>
       </c>
       <c r="G5">
-        <v>0.005879037262790373</v>
+        <v>-0.005769015840140874</v>
       </c>
       <c r="I5">
-        <v>0.0009594823775948238</v>
+        <v>-0.009225212816018952</v>
       </c>
       <c r="J5">
-        <v>-0.006131584926453814</v>
+        <v>-0.01648424822400624</v>
       </c>
       <c r="K5">
-        <v>-0.00356565200365652</v>
+        <v>-0.007021306586270417</v>
       </c>
       <c r="L5">
-        <v>-0.00356565200365652</v>
+        <v>-0.007021306586270417</v>
       </c>
       <c r="M5">
-        <v>-0.00356565200365652</v>
+        <v>-0.007021306586270417</v>
       </c>
       <c r="O5">
-        <v>-0.00356565200365652</v>
+        <v>-0.007021306586270417</v>
       </c>
       <c r="P5">
-        <v>-0.002511713641117136</v>
+        <v>0.002284999816953123</v>
       </c>
       <c r="Q5">
-        <v>-0.008770434831704348</v>
+        <v>-0.005493295656145245</v>
       </c>
       <c r="R5">
-        <v>-0.008770434831704348</v>
+        <v>-0.005493295656145245</v>
       </c>
       <c r="S5">
-        <v>-0.008770434831704348</v>
+        <v>-0.005493295656145245</v>
       </c>
       <c r="T5">
-        <v>-0.008770434831704348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>-0.005493295656145245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0.3912730639687306</v>
+        <v>0.398684697018511</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01058144402471006</v>
       </c>
       <c r="F6">
-        <v>-0.01358660171186602</v>
+        <v>-0.009783066645047918</v>
       </c>
       <c r="G6">
-        <v>0.0004960964449609644</v>
+        <v>-0.002598139189033425</v>
       </c>
       <c r="I6">
-        <v>-0.593487703578877</v>
+        <v>-0.5847194684487418</v>
       </c>
       <c r="J6">
-        <v>-0.001753419506580116</v>
+        <v>-0.01211719696633467</v>
       </c>
       <c r="K6">
-        <v>0.02169913532499135</v>
+        <v>0.009606091392282681</v>
       </c>
       <c r="L6">
-        <v>0.02169913532499135</v>
+        <v>0.009606091392282681</v>
       </c>
       <c r="M6">
-        <v>0.02169913532499135</v>
+        <v>0.009606091392282681</v>
       </c>
       <c r="O6">
-        <v>0.02169913532499135</v>
+        <v>0.009606091392282681</v>
       </c>
       <c r="P6">
-        <v>-0.006739857487398575</v>
+        <v>-0.003863927568186369</v>
       </c>
       <c r="Q6">
-        <v>0.02111369079113691</v>
+        <v>0.01225127109767611</v>
       </c>
       <c r="R6">
-        <v>0.02111369079113691</v>
+        <v>0.01225127109767611</v>
       </c>
       <c r="S6">
-        <v>0.02111369079113691</v>
+        <v>0.01225127109767611</v>
       </c>
       <c r="T6">
-        <v>0.02111369079113691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>0.01225127109767611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0.002586130501861305</v>
+        <v>-0.02142077473313711</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.00489838524059977</v>
       </c>
       <c r="F7">
-        <v>0.004926380485263805</v>
+        <v>-0.009254510371164225</v>
       </c>
       <c r="G7">
-        <v>-0.001487543642875436</v>
+        <v>0.009401403943771938</v>
       </c>
       <c r="I7">
-        <v>0.02181123497011235</v>
+        <v>0.01467179312768427</v>
       </c>
       <c r="J7">
-        <v>-0.01054097326326876</v>
+        <v>-0.0114392805200072</v>
       </c>
       <c r="K7">
-        <v>0.0009284171852841719</v>
+        <v>0.01401077346891834</v>
       </c>
       <c r="L7">
-        <v>0.0009284171852841719</v>
+        <v>0.01401077346891834</v>
       </c>
       <c r="M7">
-        <v>0.0009284171852841719</v>
+        <v>0.01401077346891834</v>
       </c>
       <c r="O7">
-        <v>0.0009284171852841719</v>
+        <v>0.01401077346891834</v>
       </c>
       <c r="P7">
-        <v>0.003912168159121682</v>
+        <v>-0.009508990132952972</v>
       </c>
       <c r="Q7">
-        <v>-8.510845285108452E-05</v>
+        <v>0.007964210913503297</v>
       </c>
       <c r="R7">
-        <v>-8.510845285108452E-05</v>
+        <v>0.007964210913503297</v>
       </c>
       <c r="S7">
-        <v>-8.510845285108452E-05</v>
+        <v>0.007964210913503297</v>
       </c>
       <c r="T7">
-        <v>-8.510845285108452E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.007964210913503297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.4044321852963219</v>
+        <v>0.4241790316824849</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.00371992705319927</v>
+        <v>0.005794222778034732</v>
       </c>
       <c r="G8">
-        <v>0.01969303758493038</v>
+        <v>0.00758127932939499</v>
       </c>
       <c r="I8">
-        <v>0.7575911078919112</v>
+        <v>0.7511025838297281</v>
       </c>
       <c r="J8">
-        <v>0.02934956890093197</v>
+        <v>0.01458059901930635</v>
       </c>
       <c r="K8">
-        <v>-0.02002803471228035</v>
+        <v>-0.02876735587917744</v>
       </c>
       <c r="L8">
-        <v>-0.02002803471228035</v>
+        <v>-0.02876735587917744</v>
       </c>
       <c r="M8">
-        <v>-0.02002803471228035</v>
+        <v>-0.02876735587917744</v>
       </c>
       <c r="O8">
-        <v>-0.02002803471228035</v>
+        <v>-0.02876735587917744</v>
       </c>
       <c r="P8">
-        <v>-0.01239048607590486</v>
+        <v>-0.002474235108972424</v>
       </c>
       <c r="Q8">
-        <v>-0.02983854555438546</v>
+        <v>-0.03764733318980209</v>
       </c>
       <c r="R8">
-        <v>-0.02983854555438546</v>
+        <v>-0.03764733318980209</v>
       </c>
       <c r="S8">
-        <v>-0.02983854555438546</v>
+        <v>-0.03764733318980209</v>
       </c>
       <c r="T8">
-        <v>-0.02983854555438546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>-0.03764733318980209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>-0.004291599486915995</v>
+        <v>0.007731665089557268</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01311056793141513</v>
       </c>
       <c r="F9">
-        <v>-0.01166951524469515</v>
+        <v>0.01255614228212723</v>
       </c>
       <c r="G9">
-        <v>0.00704871203848712</v>
+        <v>-0.01198519340601865</v>
       </c>
       <c r="I9">
-        <v>-1.628527216285272E-05</v>
+        <v>0.002563737368183396</v>
       </c>
       <c r="J9">
-        <v>-0.002825169554130037</v>
+        <v>0.01675555343843181</v>
       </c>
       <c r="K9">
-        <v>0.01721972713619727</v>
+        <v>-0.004740713019386142</v>
       </c>
       <c r="L9">
-        <v>0.01721972713619727</v>
+        <v>-0.004740713019386142</v>
       </c>
       <c r="M9">
-        <v>0.01721972713619727</v>
+        <v>-0.004740713019386142</v>
       </c>
       <c r="O9">
-        <v>0.01721972713619727</v>
+        <v>-0.004740713019386142</v>
       </c>
       <c r="P9">
-        <v>-0.009827868218278682</v>
+        <v>0.01301791815652997</v>
       </c>
       <c r="Q9">
-        <v>0.01025768943057689</v>
+        <v>0.006219727972183249</v>
       </c>
       <c r="R9">
-        <v>0.01025768943057689</v>
+        <v>0.006219727972183249</v>
       </c>
       <c r="S9">
-        <v>0.01025768943057689</v>
+        <v>0.006219727972183249</v>
       </c>
       <c r="T9">
-        <v>0.01025768943057689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>0.006219727972183249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.4917730737697307</v>
+        <v>0.4788228109503565</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.01630515048914298</v>
       </c>
       <c r="F10">
-        <v>-0.0059700600117006</v>
+        <v>0.008721161151893145</v>
       </c>
       <c r="G10">
-        <v>0.0008407234404072344</v>
+        <v>-0.009269685355776335</v>
       </c>
       <c r="I10">
-        <v>-0.01242174911221749</v>
+        <v>0.02159351475927367</v>
       </c>
       <c r="J10">
-        <v>0.002170362167652028</v>
+        <v>0.005122756641718275</v>
       </c>
       <c r="K10">
-        <v>0.01286719205667192</v>
+        <v>-0.00704695857885873</v>
       </c>
       <c r="L10">
-        <v>0.01286719205667192</v>
+        <v>-0.00704695857885873</v>
       </c>
       <c r="M10">
-        <v>0.01286719205667192</v>
+        <v>-0.00704695857885873</v>
       </c>
       <c r="O10">
-        <v>0.01286719205667192</v>
+        <v>-0.00704695857885873</v>
       </c>
       <c r="P10">
-        <v>-0.00402607105626071</v>
+        <v>0.009090718899854983</v>
       </c>
       <c r="Q10">
-        <v>0.01172015828120158</v>
+        <v>-0.001480354921568046</v>
       </c>
       <c r="R10">
-        <v>0.01172015828120158</v>
+        <v>-0.001480354921568046</v>
       </c>
       <c r="S10">
-        <v>0.01172015828120158</v>
+        <v>-0.001480354921568046</v>
       </c>
       <c r="T10">
-        <v>0.01172015828120158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>-0.001480354921568046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>-0.007726255337262553</v>
+        <v>-0.003044775797574623</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.002207518206367472</v>
       </c>
       <c r="F11">
-        <v>0.02342054106620541</v>
+        <v>-0.0002998231218722363</v>
       </c>
       <c r="G11">
-        <v>-0.01990685052706851</v>
+        <v>-0.004211018222047161</v>
       </c>
       <c r="I11">
-        <v>0.0005358972413589723</v>
+        <v>-0.00499563382805678</v>
       </c>
       <c r="J11">
-        <v>-0.001777910664785035</v>
+        <v>0.0008719456906094796</v>
       </c>
       <c r="K11">
-        <v>-0.01918706599187066</v>
+        <v>0.001805397684459339</v>
       </c>
       <c r="L11">
-        <v>-0.01918706599187066</v>
+        <v>0.001805397684459339</v>
       </c>
       <c r="M11">
-        <v>-0.01918706599187066</v>
+        <v>0.001805397684459339</v>
       </c>
       <c r="O11">
-        <v>-0.01918706599187066</v>
+        <v>0.001805397684459339</v>
       </c>
       <c r="P11">
-        <v>0.02213618788136188</v>
+        <v>0.0008796208262440754</v>
       </c>
       <c r="Q11">
-        <v>-0.005688547316885474</v>
+        <v>0.001844919169451862</v>
       </c>
       <c r="R11">
-        <v>-0.005688547316885474</v>
+        <v>0.001844919169451862</v>
       </c>
       <c r="S11">
-        <v>-0.005688547316885474</v>
+        <v>0.001844919169451862</v>
       </c>
       <c r="T11">
-        <v>-0.005688547316885474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>0.001844919169451862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0.02913485628334856</v>
+        <v>0.004373305404270398</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.005172416705819012</v>
       </c>
       <c r="F12">
-        <v>0.006081383256813832</v>
+        <v>0.005838396841224952</v>
       </c>
       <c r="G12">
-        <v>-0.01228217270682173</v>
+        <v>-0.004897576576524634</v>
       </c>
       <c r="I12">
-        <v>0.006148955365489554</v>
+        <v>4.768310230754848E-05</v>
       </c>
       <c r="J12">
-        <v>0.001914893749719578</v>
+        <v>-0.006587482602587942</v>
       </c>
       <c r="K12">
-        <v>-0.007124750063247501</v>
+        <v>0.008839923278748801</v>
       </c>
       <c r="L12">
-        <v>-0.007124750063247501</v>
+        <v>0.008839923278748801</v>
       </c>
       <c r="M12">
-        <v>-0.007124750063247501</v>
+        <v>0.008839923278748801</v>
       </c>
       <c r="O12">
-        <v>-0.007124750063247501</v>
+        <v>0.008839923278748801</v>
       </c>
       <c r="P12">
-        <v>0.007736657273366573</v>
+        <v>0.006259281214988769</v>
       </c>
       <c r="Q12">
-        <v>-0.001786486469864865</v>
+        <v>0.01634853625544588</v>
       </c>
       <c r="R12">
-        <v>-0.001786486469864865</v>
+        <v>0.01634853625544588</v>
       </c>
       <c r="S12">
-        <v>-0.001786486469864865</v>
+        <v>0.01634853625544588</v>
       </c>
       <c r="T12">
-        <v>-0.001786486469864865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>0.01634853625544588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>0.1366221313182213</v>
+        <v>0.1432624109650377</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01257064383704131</v>
       </c>
       <c r="F13">
-        <v>-0.001462445630624456</v>
+        <v>0.002880253896566467</v>
       </c>
       <c r="G13">
-        <v>-0.0007342889833428899</v>
+        <v>-0.004168875018263673</v>
       </c>
       <c r="I13">
-        <v>-0.008277786238777863</v>
+        <v>-0.01267916937779952</v>
       </c>
       <c r="J13">
-        <v>0.009253558204651296</v>
+        <v>-0.002066251418329231</v>
       </c>
       <c r="K13">
-        <v>0.02251374879313749</v>
+        <v>0.001270521980789406</v>
       </c>
       <c r="L13">
-        <v>0.02251374879313749</v>
+        <v>0.001270521980789406</v>
       </c>
       <c r="M13">
-        <v>0.02251374879313749</v>
+        <v>0.001270521980789406</v>
       </c>
       <c r="O13">
-        <v>0.02251374879313749</v>
+        <v>0.001270521980789406</v>
       </c>
       <c r="P13">
-        <v>0.0003142850791428508</v>
+        <v>0.003713683065838799</v>
       </c>
       <c r="Q13">
-        <v>0.02761514968815149</v>
+        <v>0.006167836830747452</v>
       </c>
       <c r="R13">
-        <v>0.02761514968815149</v>
+        <v>0.006167836830747452</v>
       </c>
       <c r="S13">
-        <v>0.02761514968815149</v>
+        <v>0.006167836830747452</v>
       </c>
       <c r="T13">
-        <v>0.02761514968815149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>0.006167836830747452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>-0.5360326631723266</v>
+        <v>-0.5479201313268771</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.007575327587114496</v>
       </c>
       <c r="F14">
-        <v>0.003876452414764524</v>
+        <v>-0.005439025725609778</v>
       </c>
       <c r="G14">
-        <v>-0.004354777219547772</v>
+        <v>0.01190959070952486</v>
       </c>
       <c r="I14">
-        <v>-0.0145696397296964</v>
+        <v>0.0005796406731193855</v>
       </c>
       <c r="J14">
-        <v>-0.003004356798457322</v>
+        <v>0.01570838895528193</v>
       </c>
       <c r="K14">
-        <v>0.001933692619336926</v>
+        <v>-0.01152715768792434</v>
       </c>
       <c r="L14">
-        <v>0.001933692619336926</v>
+        <v>-0.01152715768792434</v>
       </c>
       <c r="M14">
-        <v>0.001933692619336926</v>
+        <v>-0.01152715768792434</v>
       </c>
       <c r="O14">
-        <v>0.001933692619336926</v>
+        <v>-0.01152715768792434</v>
       </c>
       <c r="P14">
-        <v>0.004533751797337518</v>
+        <v>-0.00818798522949977</v>
       </c>
       <c r="Q14">
-        <v>0.00751347204313472</v>
+        <v>-0.01864868595544822</v>
       </c>
       <c r="R14">
-        <v>0.00751347204313472</v>
+        <v>-0.01864868595544822</v>
       </c>
       <c r="S14">
-        <v>0.00751347204313472</v>
+        <v>-0.01864868595544822</v>
       </c>
       <c r="T14">
-        <v>0.00751347204313472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>-0.01864868595544822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>0.005261682460616825</v>
+        <v>-0.019916671811198</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01679604588743822</v>
       </c>
       <c r="F15">
-        <v>-0.00778327897783279</v>
+        <v>0.02356153480564898</v>
       </c>
       <c r="G15">
-        <v>0.006996188241961882</v>
+        <v>-0.024539807469372</v>
       </c>
       <c r="I15">
-        <v>-0.004858887864588878</v>
+        <v>-0.02153399396146866</v>
       </c>
       <c r="J15">
-        <v>0.001416599338358591</v>
+        <v>-0.01458323677163552</v>
       </c>
       <c r="K15">
-        <v>0.002568829057688291</v>
+        <v>-0.01022395722224933</v>
       </c>
       <c r="L15">
-        <v>0.002568829057688291</v>
+        <v>-0.01022395722224933</v>
       </c>
       <c r="M15">
-        <v>0.002568829057688291</v>
+        <v>-0.01022395722224933</v>
       </c>
       <c r="O15">
-        <v>0.002568829057688291</v>
+        <v>-0.01022395722224933</v>
       </c>
       <c r="P15">
-        <v>-0.007598146551981466</v>
+        <v>0.0245365696255714</v>
       </c>
       <c r="Q15">
-        <v>-0.007307308081073081</v>
+        <v>0.007991657632682152</v>
       </c>
       <c r="R15">
-        <v>-0.007307308081073081</v>
+        <v>0.007991657632682152</v>
       </c>
       <c r="S15">
-        <v>-0.007307308081073081</v>
+        <v>0.007991657632682152</v>
       </c>
       <c r="T15">
-        <v>-0.007307308081073081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>0.007991657632682152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>-0.0002957929709579297</v>
+        <v>0.02632785713793527</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.008682973330983959</v>
       </c>
       <c r="F16">
-        <v>0.02306666745866667</v>
+        <v>-0.007731685855182593</v>
       </c>
       <c r="G16">
-        <v>-0.01976063660960637</v>
+        <v>0.001237987097468549</v>
       </c>
       <c r="I16">
-        <v>-0.005532173443321734</v>
+        <v>-0.007802611785978309</v>
       </c>
       <c r="J16">
-        <v>-0.003993640144971197</v>
+        <v>0.003715833476971092</v>
       </c>
       <c r="K16">
-        <v>-0.03010376624503766</v>
+        <v>0.009041004141265692</v>
       </c>
       <c r="L16">
-        <v>-0.03010376624503766</v>
+        <v>0.009041004141265692</v>
       </c>
       <c r="M16">
-        <v>-0.03010376624503766</v>
+        <v>0.009041004141265692</v>
       </c>
       <c r="O16">
-        <v>-0.03010376624503766</v>
+        <v>0.009041004141265692</v>
       </c>
       <c r="P16">
-        <v>0.02103858497438585</v>
+        <v>-0.005596483001507548</v>
       </c>
       <c r="Q16">
-        <v>-0.01910292387502924</v>
+        <v>0.008658377244662147</v>
       </c>
       <c r="R16">
-        <v>-0.01910292387502924</v>
+        <v>0.008658377244662147</v>
       </c>
       <c r="S16">
-        <v>-0.01910292387502924</v>
+        <v>0.008658377244662147</v>
       </c>
       <c r="T16">
-        <v>-0.01910292387502924</v>
+        <v>0.008658377244662147</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>0.01854354354543544</v>
+        <v>0.01302349670349214</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01099503082804736</v>
       </c>
       <c r="F17">
-        <v>-0.01388936869889369</v>
+        <v>-0.007275724308995694</v>
       </c>
       <c r="G17">
-        <v>0.01384787127047871</v>
+        <v>0.006213235339269303</v>
       </c>
       <c r="I17">
-        <v>0.0003871840118718401</v>
+        <v>0.001404713811011154</v>
       </c>
       <c r="J17">
-        <v>-0.001896491476360719</v>
+        <v>0.006887899057989196</v>
       </c>
       <c r="K17">
-        <v>0.003731072161310721</v>
+        <v>-0.01394015946781499</v>
       </c>
       <c r="L17">
-        <v>0.003731072161310721</v>
+        <v>-0.01394015946781499</v>
       </c>
       <c r="M17">
-        <v>0.003731072161310721</v>
+        <v>-0.01394015946781499</v>
       </c>
       <c r="O17">
-        <v>0.003731072161310721</v>
+        <v>-0.01394015946781499</v>
       </c>
       <c r="P17">
-        <v>-0.01388068296680683</v>
+        <v>-0.008396258006191532</v>
       </c>
       <c r="Q17">
-        <v>-0.008114664765146648</v>
+        <v>-0.01950914299233036</v>
       </c>
       <c r="R17">
-        <v>-0.008114664765146648</v>
+        <v>-0.01950914299233036</v>
       </c>
       <c r="S17">
-        <v>-0.008114664765146648</v>
+        <v>-0.01950914299233036</v>
       </c>
       <c r="T17">
-        <v>-0.008114664765146648</v>
+        <v>-0.01950914299233036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>0.01042782756827828</v>
+        <v>0.002515944086186627</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.002837576856837139</v>
       </c>
       <c r="F18">
-        <v>5.696571656965716E-05</v>
+        <v>0.006058381102474706</v>
       </c>
       <c r="G18">
-        <v>-0.00236553101965531</v>
+        <v>-0.008555283438363806</v>
       </c>
       <c r="I18">
-        <v>-0.008125978377259783</v>
+        <v>0.005921994819093669</v>
       </c>
       <c r="J18">
-        <v>-0.01148247745665357</v>
+        <v>-0.02180658842864974</v>
       </c>
       <c r="K18">
-        <v>0.001550612319506123</v>
+        <v>-0.008572411235506425</v>
       </c>
       <c r="L18">
-        <v>0.001550612319506123</v>
+        <v>-0.008572411235506425</v>
       </c>
       <c r="M18">
-        <v>0.001550612319506123</v>
+        <v>-0.008572411235506425</v>
       </c>
       <c r="O18">
-        <v>0.001550612319506123</v>
+        <v>-0.008572411235506425</v>
       </c>
       <c r="P18">
-        <v>0.0006709194787091948</v>
+        <v>0.006292994160828035</v>
       </c>
       <c r="Q18">
-        <v>0.005262444688624447</v>
+        <v>-0.007234393120849894</v>
       </c>
       <c r="R18">
-        <v>0.005262444688624447</v>
+        <v>-0.007234393120849894</v>
       </c>
       <c r="S18">
-        <v>0.005262444688624447</v>
+        <v>-0.007234393120849894</v>
       </c>
       <c r="T18">
-        <v>0.005262444688624447</v>
+        <v>-0.007234393120849894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0.0226820298348203</v>
+        <v>-0.01046219289784676</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02570739963605312</v>
       </c>
       <c r="F19">
-        <v>0.0003175590391755904</v>
+        <v>0.006849222763269107</v>
       </c>
       <c r="G19">
-        <v>-0.002281134166811342</v>
+        <v>-0.007266016519781509</v>
       </c>
       <c r="I19">
-        <v>0.001169917679699177</v>
+        <v>-0.03071296697989011</v>
       </c>
       <c r="J19">
-        <v>0.0001071697865234147</v>
+        <v>0.009474154753525647</v>
       </c>
       <c r="K19">
-        <v>0.0007894159758941598</v>
+        <v>0.00184041019281891</v>
       </c>
       <c r="L19">
-        <v>0.0007894159758941598</v>
+        <v>0.00184041019281891</v>
       </c>
       <c r="M19">
-        <v>0.0007894159758941598</v>
+        <v>0.00184041019281891</v>
       </c>
       <c r="O19">
-        <v>0.0007894159758941598</v>
+        <v>0.00184041019281891</v>
       </c>
       <c r="P19">
-        <v>0.0008261221282612214</v>
+        <v>0.007544243367878804</v>
       </c>
       <c r="Q19">
-        <v>-0.00258304904583049</v>
+        <v>0.004986421390412835</v>
       </c>
       <c r="R19">
-        <v>-0.00258304904583049</v>
+        <v>0.004986421390412835</v>
       </c>
       <c r="S19">
-        <v>-0.00258304904583049</v>
+        <v>0.004986421390412835</v>
       </c>
       <c r="T19">
-        <v>-0.00258304904583049</v>
+        <v>0.004986421390412835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>-0.01176117641761176</v>
+        <v>-0.006858125614970715</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.006780813410637711</v>
       </c>
       <c r="F20">
-        <v>-0.007380954205809542</v>
+        <v>-0.002374470529288603</v>
       </c>
       <c r="G20">
-        <v>0.009545357279453572</v>
+        <v>0.004180063987188501</v>
       </c>
       <c r="I20">
-        <v>-0.008993548469935485</v>
+        <v>-0.001335589192743581</v>
       </c>
       <c r="J20">
-        <v>-0.004115639783235447</v>
+        <v>0.01081102435768751</v>
       </c>
       <c r="K20">
-        <v>0.004128706421287064</v>
+        <v>-0.01372941801920966</v>
       </c>
       <c r="L20">
-        <v>0.004128706421287064</v>
+        <v>-0.01372941801920966</v>
       </c>
       <c r="M20">
-        <v>0.004128706421287064</v>
+        <v>-0.01372941801920966</v>
       </c>
       <c r="O20">
-        <v>0.004128706421287064</v>
+        <v>-0.01372941801920966</v>
       </c>
       <c r="P20">
-        <v>-0.008298355762983559</v>
+        <v>-0.00320214844065857</v>
       </c>
       <c r="Q20">
-        <v>-0.002707052955070529</v>
+        <v>-0.02031476152835565</v>
       </c>
       <c r="R20">
-        <v>-0.002707052955070529</v>
+        <v>-0.02031476152835565</v>
       </c>
       <c r="S20">
-        <v>-0.002707052955070529</v>
+        <v>-0.02031476152835565</v>
       </c>
       <c r="T20">
-        <v>-0.002707052955070529</v>
+        <v>-0.02031476152835565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>0.006534092261340923</v>
+        <v>0.008164011736937685</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.0001334091348970178</v>
       </c>
       <c r="F21">
-        <v>-0.01692688675326887</v>
+        <v>0.01474973941015218</v>
       </c>
       <c r="G21">
-        <v>0.01697240658172407</v>
+        <v>-0.01641275146738674</v>
       </c>
       <c r="I21">
-        <v>0.01427267168272672</v>
+        <v>-0.01568230601847354</v>
       </c>
       <c r="J21">
-        <v>0.01531894890053971</v>
+        <v>-0.00594417785621753</v>
       </c>
       <c r="K21">
-        <v>0.01510952701909527</v>
+        <v>0.008704992253203005</v>
       </c>
       <c r="L21">
-        <v>0.01510952701909527</v>
+        <v>0.008704992253203005</v>
       </c>
       <c r="M21">
-        <v>0.01510952701909527</v>
+        <v>0.008704992253203005</v>
       </c>
       <c r="O21">
-        <v>0.01510952701909527</v>
+        <v>0.008704992253203005</v>
       </c>
       <c r="P21">
-        <v>-0.01650669491706695</v>
+        <v>0.015738719706855</v>
       </c>
       <c r="Q21">
-        <v>0.006104787481047875</v>
+        <v>0.02285794446653039</v>
       </c>
       <c r="R21">
-        <v>0.006104787481047875</v>
+        <v>0.02285794446653039</v>
       </c>
       <c r="S21">
-        <v>0.006104787481047875</v>
+        <v>0.02285794446653039</v>
       </c>
       <c r="T21">
-        <v>0.006104787481047875</v>
+        <v>0.02285794446653039</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>-0.02360721420807214</v>
+        <v>-0.007875885708998215</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.0117859004966547</v>
       </c>
       <c r="F22">
-        <v>0.006654466278544663</v>
+        <v>-0.005686442010725657</v>
       </c>
       <c r="G22">
-        <v>-0.001554454479544545</v>
+        <v>0.004809029559516088</v>
       </c>
       <c r="I22">
-        <v>0.01109335831493358</v>
+        <v>0.006108490150132659</v>
       </c>
       <c r="J22">
-        <v>-0.006770431106344747</v>
+        <v>0.01693137317167265</v>
       </c>
       <c r="K22">
-        <v>-0.01562724710427247</v>
+        <v>-0.006024687492573243</v>
       </c>
       <c r="L22">
-        <v>-0.01562724710427247</v>
+        <v>-0.006024687492573243</v>
       </c>
       <c r="M22">
-        <v>-0.01562724710427247</v>
+        <v>-0.006024687492573243</v>
       </c>
       <c r="O22">
-        <v>-0.01562724710427247</v>
+        <v>-0.006024687492573243</v>
       </c>
       <c r="P22">
-        <v>0.004223801790238018</v>
+        <v>-0.005486838085731846</v>
       </c>
       <c r="Q22">
-        <v>-0.01575005805750058</v>
+        <v>-0.01247343589020994</v>
       </c>
       <c r="R22">
-        <v>-0.01575005805750058</v>
+        <v>-0.01247343589020994</v>
       </c>
       <c r="S22">
-        <v>-0.01575005805750058</v>
+        <v>-0.01247343589020994</v>
       </c>
       <c r="T22">
-        <v>-0.01575005805750058</v>
+        <v>-0.01247343589020994</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>0.01376058763760588</v>
+        <v>-0.01328743098886611</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.02077025807453528</v>
       </c>
       <c r="F23">
-        <v>-0.008357294879572949</v>
+        <v>-0.002670620994853453</v>
       </c>
       <c r="G23">
-        <v>0.008923246757232467</v>
+        <v>0.002785883809154435</v>
       </c>
       <c r="I23">
-        <v>-0.0004642928446429285</v>
+        <v>-0.01900510433601726</v>
       </c>
       <c r="J23">
-        <v>0.002905121579948868</v>
+        <v>0.0048449444043569</v>
       </c>
       <c r="K23">
-        <v>0.00550186199501862</v>
+        <v>-0.001126883970732562</v>
       </c>
       <c r="L23">
-        <v>0.00550186199501862</v>
+        <v>-0.001126883970732562</v>
       </c>
       <c r="M23">
-        <v>0.00550186199501862</v>
+        <v>-0.001126883970732562</v>
       </c>
       <c r="O23">
-        <v>0.00550186199501862</v>
+        <v>-0.001126883970732562</v>
       </c>
       <c r="P23">
-        <v>-0.008590882789908829</v>
+        <v>-0.002862111044720485</v>
       </c>
       <c r="Q23">
-        <v>0.001121397779213978</v>
+        <v>-0.002041492860023326</v>
       </c>
       <c r="R23">
-        <v>0.001121397779213978</v>
+        <v>-0.002041492860023326</v>
       </c>
       <c r="S23">
-        <v>0.001121397779213978</v>
+        <v>-0.002041492860023326</v>
       </c>
       <c r="T23">
-        <v>0.001121397779213978</v>
+        <v>-0.002041492860023326</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>-0.007534459671344596</v>
+        <v>-0.004198187104659174</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>0.001018814640918979</v>
       </c>
       <c r="F24">
-        <v>-0.00346225399062254</v>
+        <v>-0.005055116399298695</v>
       </c>
       <c r="G24">
-        <v>0.003790264921902649</v>
+        <v>0.009928281366066898</v>
       </c>
       <c r="I24">
-        <v>-0.01163020481630205</v>
+        <v>0.009036265008379141</v>
       </c>
       <c r="J24">
-        <v>-0.01099381430957487</v>
+        <v>0.003904247910100215</v>
       </c>
       <c r="K24">
-        <v>0.008383855955838558</v>
+        <v>-0.007947622671056606</v>
       </c>
       <c r="L24">
-        <v>0.008383855955838558</v>
+        <v>-0.007947622671056606</v>
       </c>
       <c r="M24">
-        <v>0.008383855955838558</v>
+        <v>-0.007947622671056606</v>
       </c>
       <c r="O24">
-        <v>0.008383855955838558</v>
+        <v>-0.007947622671056606</v>
       </c>
       <c r="P24">
-        <v>-0.00377782400577824</v>
+        <v>-0.007097496368710882</v>
       </c>
       <c r="Q24">
-        <v>0.007112729279127292</v>
+        <v>-0.01755727400870741</v>
       </c>
       <c r="R24">
-        <v>0.007112729279127292</v>
+        <v>-0.01755727400870741</v>
       </c>
       <c r="S24">
-        <v>0.007112729279127292</v>
+        <v>-0.01755727400870741</v>
       </c>
       <c r="T24">
-        <v>0.007112729279127292</v>
+        <v>-0.01755727400870741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>-0.002710378383103784</v>
+        <v>-0.01955435929772437</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.01706367614943245</v>
       </c>
       <c r="F25">
-        <v>0.01168418897684189</v>
+        <v>0.004193253909269593</v>
       </c>
       <c r="G25">
-        <v>-0.009944915247449154</v>
+        <v>-0.005335035294297428</v>
       </c>
       <c r="I25">
-        <v>-0.004655105122551051</v>
+        <v>-0.006639856345935257</v>
       </c>
       <c r="J25">
-        <v>0.001188812711938744</v>
+        <v>-0.0006656828850812565</v>
       </c>
       <c r="K25">
-        <v>-0.01332989259729893</v>
+        <v>0.003655079541485619</v>
       </c>
       <c r="L25">
-        <v>-0.01332989259729893</v>
+        <v>0.003655079541485619</v>
       </c>
       <c r="M25">
-        <v>-0.01332989259729893</v>
+        <v>0.003655079541485619</v>
       </c>
       <c r="O25">
-        <v>-0.01332989259729893</v>
+        <v>0.003655079541485619</v>
       </c>
       <c r="P25">
-        <v>0.0109913902339139</v>
+        <v>0.004745643566338181</v>
       </c>
       <c r="Q25">
-        <v>-0.007802464386024644</v>
+        <v>0.008432063311438491</v>
       </c>
       <c r="R25">
-        <v>-0.007802464386024644</v>
+        <v>0.008432063311438491</v>
       </c>
       <c r="S25">
-        <v>-0.007802464386024644</v>
+        <v>0.008432063311438491</v>
       </c>
       <c r="T25">
-        <v>-0.007802464386024644</v>
+        <v>0.008432063311438491</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>0.003872928374729284</v>
+        <v>-0.0180670335713599</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.007981843437216304</v>
       </c>
       <c r="F26">
-        <v>-0.001727914145279142</v>
+        <v>0.001636785939637281</v>
       </c>
       <c r="G26">
-        <v>0.005070566150705661</v>
+        <v>-0.002848799482012492</v>
       </c>
       <c r="I26">
-        <v>-0.01216528214565282</v>
+        <v>0.009929021991078471</v>
       </c>
       <c r="J26">
-        <v>0.00484855530637424</v>
+        <v>-0.0006254513231631629</v>
       </c>
       <c r="K26">
-        <v>-0.01684246291242463</v>
+        <v>-0.002959764491558821</v>
       </c>
       <c r="L26">
-        <v>-0.01684246291242463</v>
+        <v>-0.002959764491558821</v>
       </c>
       <c r="M26">
-        <v>-0.01684246291242463</v>
+        <v>-0.002959764491558821</v>
       </c>
       <c r="O26">
-        <v>-0.01684246291242463</v>
+        <v>-0.002959764491558821</v>
       </c>
       <c r="P26">
-        <v>-0.003747144889471449</v>
+        <v>0.001116568681508886</v>
       </c>
       <c r="Q26">
-        <v>-0.02471333147513331</v>
+        <v>-0.007059177133737144</v>
       </c>
       <c r="R26">
-        <v>-0.02471333147513331</v>
+        <v>-0.007059177133737144</v>
       </c>
       <c r="S26">
-        <v>-0.02471333147513331</v>
+        <v>-0.007059177133737144</v>
       </c>
       <c r="T26">
-        <v>-0.02471333147513331</v>
+        <v>-0.007059177133737144</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>0.00725449698054497</v>
+        <v>0.01385543963055375</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.02903286291457599</v>
       </c>
       <c r="F27">
-        <v>-0.003774635641746356</v>
+        <v>-0.009991124570173824</v>
       </c>
       <c r="G27">
-        <v>0.001547708763477088</v>
+        <v>0.008993453601460215</v>
       </c>
       <c r="I27">
-        <v>-0.001929286591292866</v>
+        <v>0.006846968989796392</v>
       </c>
       <c r="J27">
-        <v>-0.01154260433650322</v>
+        <v>-0.01254872927236536</v>
       </c>
       <c r="K27">
-        <v>0.004433156984331569</v>
+        <v>0.008190636315478695</v>
       </c>
       <c r="L27">
-        <v>0.004433156984331569</v>
+        <v>0.008190636315478695</v>
       </c>
       <c r="M27">
-        <v>0.004433156984331569</v>
+        <v>0.008190636315478695</v>
       </c>
       <c r="O27">
-        <v>0.004433156984331569</v>
+        <v>0.008190636315478695</v>
       </c>
       <c r="P27">
-        <v>-0.002934964145349642</v>
+        <v>-0.01007618619650291</v>
       </c>
       <c r="Q27">
-        <v>0.008681451806814518</v>
+        <v>0.0004148763111699424</v>
       </c>
       <c r="R27">
-        <v>0.008681451806814518</v>
+        <v>0.0004148763111699424</v>
       </c>
       <c r="S27">
-        <v>0.008681451806814518</v>
+        <v>0.0004148763111699424</v>
       </c>
       <c r="T27">
-        <v>0.008681451806814518</v>
+        <v>0.0004148763111699424</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0.009860334746603347</v>
+        <v>-0.005460407265006364</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.009685264065394753</v>
       </c>
       <c r="F28">
-        <v>0.002553074233530743</v>
+        <v>-0.001723474878491795</v>
       </c>
       <c r="G28">
-        <v>-0.004355273707552737</v>
+        <v>0.009013520062711253</v>
       </c>
       <c r="I28">
-        <v>0.002591098249910983</v>
+        <v>0.006184452495069571</v>
       </c>
       <c r="J28">
-        <v>-0.01861955959773728</v>
+        <v>-0.005395674306137547</v>
       </c>
       <c r="K28">
-        <v>0.000780893803808938</v>
+        <v>-0.001743990167874847</v>
       </c>
       <c r="L28">
-        <v>0.000780893803808938</v>
+        <v>-0.001743990167874847</v>
       </c>
       <c r="M28">
-        <v>0.000780893803808938</v>
+        <v>-0.001743990167874847</v>
       </c>
       <c r="O28">
-        <v>0.000780893803808938</v>
+        <v>-0.001743990167874847</v>
       </c>
       <c r="P28">
-        <v>0.00297569296175693</v>
+        <v>-0.003809625997025406</v>
       </c>
       <c r="Q28">
-        <v>0.004633119118331191</v>
+        <v>-0.004690015409218992</v>
       </c>
       <c r="R28">
-        <v>0.004633119118331191</v>
+        <v>-0.004690015409218992</v>
       </c>
       <c r="S28">
-        <v>0.004633119118331191</v>
+        <v>-0.004690015409218992</v>
       </c>
       <c r="T28">
-        <v>0.004633119118331191</v>
+        <v>-0.004690015409218992</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>0.006224248274242484</v>
+        <v>0.002529014547328353</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.01144191936627999</v>
       </c>
       <c r="F29">
-        <v>0.006060425112604251</v>
+        <v>0.009109390361084225</v>
       </c>
       <c r="G29">
-        <v>-0.009326289153262892</v>
+        <v>-0.01427778650434042</v>
       </c>
       <c r="I29">
-        <v>-0.004654144318541443</v>
+        <v>0.005126072775407387</v>
       </c>
       <c r="J29">
-        <v>0.008719915281383588</v>
+        <v>-0.004026470389147338</v>
       </c>
       <c r="K29">
-        <v>0.002581202113812021</v>
+        <v>0.005695735354620866</v>
       </c>
       <c r="L29">
-        <v>0.002581202113812021</v>
+        <v>0.005695735354620866</v>
       </c>
       <c r="M29">
-        <v>0.002581202113812021</v>
+        <v>0.005695735354620866</v>
       </c>
       <c r="O29">
-        <v>0.002581202113812021</v>
+        <v>0.005695735354620866</v>
       </c>
       <c r="P29">
-        <v>0.007542418647424186</v>
+        <v>0.01162855914263374</v>
       </c>
       <c r="Q29">
-        <v>0.01057951792579518</v>
+        <v>0.01499864737497887</v>
       </c>
       <c r="R29">
-        <v>0.01057951792579518</v>
+        <v>0.01499864737497887</v>
       </c>
       <c r="S29">
-        <v>0.01057951792579518</v>
+        <v>0.01499864737497887</v>
       </c>
       <c r="T29">
-        <v>0.01057951792579518</v>
+        <v>0.01499864737497887</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>-0.005228580244285803</v>
+        <v>0.02915551025242985</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.00527271484019867</v>
       </c>
       <c r="F30">
-        <v>-0.01777584623775846</v>
+        <v>-0.01859925183748832</v>
       </c>
       <c r="G30">
-        <v>0.01608122680081227</v>
+        <v>0.01679280314520005</v>
       </c>
       <c r="I30">
-        <v>0.005722378113223781</v>
+        <v>0.004466436351038068</v>
       </c>
       <c r="J30">
-        <v>0.02597091200544843</v>
+        <v>0.002389501944556995</v>
       </c>
       <c r="K30">
-        <v>0.01566210110462101</v>
+        <v>0.007616409634631402</v>
       </c>
       <c r="L30">
-        <v>0.01566210110462101</v>
+        <v>0.007616409634631402</v>
       </c>
       <c r="M30">
-        <v>0.01566210110462101</v>
+        <v>0.007616409634631402</v>
       </c>
       <c r="O30">
-        <v>0.01566210110462101</v>
+        <v>0.007616409634631402</v>
       </c>
       <c r="P30">
-        <v>-0.01692177046921771</v>
+        <v>-0.01857323581364431</v>
       </c>
       <c r="Q30">
-        <v>0.004896453492964535</v>
+        <v>-0.005084266931004171</v>
       </c>
       <c r="R30">
-        <v>0.004896453492964535</v>
+        <v>-0.005084266931004171</v>
       </c>
       <c r="S30">
-        <v>0.004896453492964535</v>
+        <v>-0.005084266931004171</v>
       </c>
       <c r="T30">
-        <v>0.004896453492964535</v>
+        <v>-0.005084266931004171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>-0.004505035725050358</v>
+        <v>-0.01904729003198891</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>0.001742901050670329</v>
       </c>
       <c r="F31">
-        <v>0.01424050900640509</v>
+        <v>0.002355674075869908</v>
       </c>
       <c r="G31">
-        <v>-0.01935625642956256</v>
+        <v>-0.0006891976513937135</v>
       </c>
       <c r="I31">
-        <v>-0.01272213456722135</v>
+        <v>0.007025443562897556</v>
       </c>
       <c r="J31">
-        <v>0.0004899604749293014</v>
+        <v>0.01450290785163906</v>
       </c>
       <c r="K31">
-        <v>-0.006803685692036857</v>
+        <v>0.003900118279689349</v>
       </c>
       <c r="L31">
-        <v>-0.006803685692036857</v>
+        <v>0.003900118279689349</v>
       </c>
       <c r="M31">
-        <v>-0.006803685692036857</v>
+        <v>0.003900118279689349</v>
       </c>
       <c r="O31">
-        <v>-0.006803685692036857</v>
+        <v>0.003900118279689349</v>
       </c>
       <c r="P31">
-        <v>0.01589146461891465</v>
+        <v>0.001805654582900853</v>
       </c>
       <c r="Q31">
-        <v>0.005064835154648351</v>
+        <v>0.005777842613716292</v>
       </c>
       <c r="R31">
-        <v>0.005064835154648351</v>
+        <v>0.005777842613716292</v>
       </c>
       <c r="S31">
-        <v>0.005064835154648351</v>
+        <v>0.005777842613716292</v>
       </c>
       <c r="T31">
-        <v>0.005064835154648351</v>
+        <v>0.005777842613716292</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>0.004080551920805519</v>
+        <v>-0.0002618765665918214</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.0008118716611229948</v>
       </c>
       <c r="F32">
-        <v>-0.001494105266941053</v>
+        <v>0.01051393680490526</v>
       </c>
       <c r="G32">
-        <v>0.005102772111027721</v>
+        <v>-0.01331339205177175</v>
       </c>
       <c r="I32">
-        <v>0.002294785162947852</v>
+        <v>-0.0004692208901440764</v>
       </c>
       <c r="J32">
-        <v>0.01170396115293209</v>
+        <v>0.01577030531237457</v>
       </c>
       <c r="K32">
-        <v>-0.01059106475791065</v>
+        <v>-0.0004964465936944781</v>
       </c>
       <c r="L32">
-        <v>-0.01059106475791065</v>
+        <v>-0.0004964465936944781</v>
       </c>
       <c r="M32">
-        <v>-0.01059106475791065</v>
+        <v>-0.0004964465936944781</v>
       </c>
       <c r="O32">
-        <v>-0.01059106475791065</v>
+        <v>-0.0004964465936944781</v>
       </c>
       <c r="P32">
-        <v>-0.00333235802132358</v>
+        <v>0.01192056756907137</v>
       </c>
       <c r="Q32">
-        <v>-0.014409500412095</v>
+        <v>0.01150995542984306</v>
       </c>
       <c r="R32">
-        <v>-0.014409500412095</v>
+        <v>0.01150995542984306</v>
       </c>
       <c r="S32">
-        <v>-0.014409500412095</v>
+        <v>0.01150995542984306</v>
       </c>
       <c r="T32">
-        <v>-0.014409500412095</v>
+        <v>0.01150995542984306</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>0.06551164661511646</v>
+        <v>0.03729915719217434</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>-0.005672794541762415</v>
       </c>
       <c r="F33">
-        <v>-0.9999567083195672</v>
+        <v>-0.9999568041477628</v>
       </c>
       <c r="G33">
-        <v>0.9583621794556219</v>
+        <v>0.9586296213770255</v>
       </c>
       <c r="I33">
-        <v>0.2373022220730222</v>
+        <v>0.2399152771393012</v>
       </c>
       <c r="J33">
-        <v>0.05774988419558461</v>
+        <v>0.06134267258032684</v>
       </c>
       <c r="K33">
-        <v>0.6572746130007461</v>
+        <v>0.6627734111214596</v>
       </c>
       <c r="L33">
-        <v>0.6572746130007461</v>
+        <v>0.6627734111214596</v>
       </c>
       <c r="M33">
-        <v>0.6572746130007461</v>
+        <v>0.6627734111214596</v>
       </c>
       <c r="O33">
-        <v>0.6572746130007461</v>
+        <v>0.6627734111214596</v>
       </c>
       <c r="P33">
-        <v>-0.9938072509580724</v>
+        <v>-0.9938615939665876</v>
       </c>
       <c r="Q33">
-        <v>0.04274552878345529</v>
+        <v>0.0459488375773256</v>
       </c>
       <c r="R33">
-        <v>0.04274552878345529</v>
+        <v>0.0459488375773256</v>
       </c>
       <c r="S33">
-        <v>0.04274552878345529</v>
+        <v>0.0459488375773256</v>
       </c>
       <c r="T33">
-        <v>0.04274552878345529</v>
+        <v>0.0459488375773256</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>-0.01218417301384173</v>
+        <v>0.01738806763106356</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.00213115580673681</v>
       </c>
       <c r="F34">
-        <v>-0.008230235326302354</v>
+        <v>0.01171316301114318</v>
       </c>
       <c r="G34">
-        <v>0.0061320500053205</v>
+        <v>-0.01503758006308719</v>
       </c>
       <c r="I34">
-        <v>0.002873783860737839</v>
+        <v>-0.007156386111818534</v>
       </c>
       <c r="J34">
-        <v>-0.01481287785411947</v>
+        <v>-4.203354026491727E-05</v>
       </c>
       <c r="K34">
-        <v>0.007085847850858478</v>
+        <v>0.00550268982816703</v>
       </c>
       <c r="L34">
-        <v>0.007085847850858478</v>
+        <v>0.00550268982816703</v>
       </c>
       <c r="M34">
-        <v>0.007085847850858478</v>
+        <v>0.00550268982816703</v>
       </c>
       <c r="O34">
-        <v>0.007085847850858478</v>
+        <v>0.00550268982816703</v>
       </c>
       <c r="P34">
-        <v>-0.007942921543429217</v>
+        <v>0.01347931846842685</v>
       </c>
       <c r="Q34">
-        <v>0.0008963129609631296</v>
+        <v>0.0152165824018216</v>
       </c>
       <c r="R34">
-        <v>0.0008963129609631296</v>
+        <v>0.0152165824018216</v>
       </c>
       <c r="S34">
-        <v>0.0008963129609631296</v>
+        <v>0.0152165824018216</v>
       </c>
       <c r="T34">
-        <v>0.0008963129609631296</v>
+        <v>0.0152165824018216</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>2.084884820848848E-05</v>
+        <v>-0.01521532104242689</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02401827414872304</v>
       </c>
       <c r="F35">
-        <v>-0.005876093350760934</v>
+        <v>-0.004747109863236093</v>
       </c>
       <c r="G35">
-        <v>0.009101326423013265</v>
+        <v>0.003105457525085275</v>
       </c>
       <c r="I35">
-        <v>0.009715454113154541</v>
+        <v>-0.01040322937348796</v>
       </c>
       <c r="J35">
-        <v>0.007232544386760532</v>
+        <v>-0.01336598529280698</v>
       </c>
       <c r="K35">
-        <v>-0.01208741558487415</v>
+        <v>-9.63274936926171E-05</v>
       </c>
       <c r="L35">
-        <v>-0.01208741558487415</v>
+        <v>-9.63274936926171E-05</v>
       </c>
       <c r="M35">
-        <v>-0.01208741558487415</v>
+        <v>-9.63274936926171E-05</v>
       </c>
       <c r="O35">
-        <v>-0.01208741558487415</v>
+        <v>-9.63274936926171E-05</v>
       </c>
       <c r="P35">
-        <v>-0.008124094089240941</v>
+        <v>-0.004278031801219247</v>
       </c>
       <c r="Q35">
-        <v>-0.02338187276981873</v>
+        <v>-0.00328484543413821</v>
       </c>
       <c r="R35">
-        <v>-0.02338187276981873</v>
+        <v>-0.00328484543413821</v>
       </c>
       <c r="S35">
-        <v>-0.02338187276981873</v>
+        <v>-0.00328484543413821</v>
       </c>
       <c r="T35">
-        <v>-0.02338187276981873</v>
+        <v>-0.00328484543413821</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>0.006725880763258808</v>
+        <v>-0.007059565024368206</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01595291422582679</v>
       </c>
       <c r="F36">
-        <v>0.0009723524617235247</v>
+        <v>-0.01353067652391682</v>
       </c>
       <c r="G36">
-        <v>-0.005894708614947087</v>
+        <v>0.01283552328649255</v>
       </c>
       <c r="I36">
-        <v>-0.002754947571549476</v>
+        <v>0.000882709560667337</v>
       </c>
       <c r="J36">
-        <v>0.01300581210090638</v>
+        <v>-0.002305218347249054</v>
       </c>
       <c r="K36">
-        <v>0.6807626074836262</v>
+        <v>0.6832679406448117</v>
       </c>
       <c r="L36">
-        <v>0.6807626074836262</v>
+        <v>0.6832679406448117</v>
       </c>
       <c r="M36">
-        <v>0.6807626074836262</v>
+        <v>0.6832679406448117</v>
       </c>
       <c r="O36">
-        <v>0.6807626074836262</v>
+        <v>0.6832679406448117</v>
       </c>
       <c r="P36">
-        <v>0.03869839265098393</v>
+        <v>0.02243072160829253</v>
       </c>
       <c r="Q36">
-        <v>0.8826451586824516</v>
+        <v>0.8807860297310318</v>
       </c>
       <c r="R36">
-        <v>0.8826451586824516</v>
+        <v>0.8807860297310318</v>
       </c>
       <c r="S36">
-        <v>0.8826451586824516</v>
+        <v>0.8807860297310318</v>
       </c>
       <c r="T36">
-        <v>0.8826451586824516</v>
+        <v>0.8807860297310318</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>0.007530315867303159</v>
+        <v>0.001985471726335496</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.004795681270245021</v>
       </c>
       <c r="F37">
-        <v>-0.004384119523841195</v>
+        <v>-0.01621116306579943</v>
       </c>
       <c r="G37">
-        <v>0.004003371604033716</v>
+        <v>0.01335707692745433</v>
       </c>
       <c r="I37">
-        <v>-0.008707239531072396</v>
+        <v>0.003670013307343959</v>
       </c>
       <c r="J37">
-        <v>0.004444458801039095</v>
+        <v>-0.001952632926510744</v>
       </c>
       <c r="K37">
-        <v>0.01143505287035053</v>
+        <v>0.0145993792671778</v>
       </c>
       <c r="L37">
-        <v>0.01143505287035053</v>
+        <v>0.0145993792671778</v>
       </c>
       <c r="M37">
-        <v>0.01143505287035053</v>
+        <v>0.0145993792671778</v>
       </c>
       <c r="O37">
-        <v>0.01143505287035053</v>
+        <v>0.0145993792671778</v>
       </c>
       <c r="P37">
-        <v>-0.003524574515245745</v>
+        <v>-0.015321791630028</v>
       </c>
       <c r="Q37">
-        <v>0.01310551373905514</v>
+        <v>0.007264728793198888</v>
       </c>
       <c r="R37">
-        <v>0.01310551373905514</v>
+        <v>0.007264728793198888</v>
       </c>
       <c r="S37">
-        <v>0.01310551373905514</v>
+        <v>0.007264728793198888</v>
       </c>
       <c r="T37">
-        <v>0.01310551373905514</v>
+        <v>0.007264728793198888</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>-0.01960734215207342</v>
+        <v>0.01186418634162791</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.01924398648818729</v>
       </c>
       <c r="F38">
-        <v>-0.0004528019085280191</v>
+        <v>0.005259459386866554</v>
       </c>
       <c r="G38">
-        <v>0.001003193458031935</v>
+        <v>-0.00739035318578677</v>
       </c>
       <c r="I38">
-        <v>-0.001934842447348425</v>
+        <v>0.01221100519079696</v>
       </c>
       <c r="J38">
-        <v>0.001374154571509847</v>
+        <v>-0.01099055039972959</v>
       </c>
       <c r="K38">
-        <v>-0.009114893347148934</v>
+        <v>-0.007401542131274096</v>
       </c>
       <c r="L38">
-        <v>-0.009114893347148934</v>
+        <v>-0.007401542131274096</v>
       </c>
       <c r="M38">
-        <v>-0.009114893347148934</v>
+        <v>-0.007401542131274096</v>
       </c>
       <c r="O38">
-        <v>-0.009114893347148934</v>
+        <v>-0.007401542131274096</v>
       </c>
       <c r="P38">
-        <v>-0.0008410775124107751</v>
+        <v>0.005818082715907544</v>
       </c>
       <c r="Q38">
-        <v>-0.01065241219052412</v>
+        <v>-0.003869105169829769</v>
       </c>
       <c r="R38">
-        <v>-0.01065241219052412</v>
+        <v>-0.003869105169829769</v>
       </c>
       <c r="S38">
-        <v>-0.01065241219052412</v>
+        <v>-0.003869105169829769</v>
       </c>
       <c r="T38">
-        <v>-0.01065241219052412</v>
+        <v>-0.003869105169829769</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>0.01554886192748862</v>
+        <v>0.01179781009840328</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01430752569230509</v>
       </c>
       <c r="F39">
-        <v>0.01913924638739246</v>
+        <v>-0.02171229340956709</v>
       </c>
       <c r="G39">
-        <v>-0.01622848546228486</v>
+        <v>0.02148724549980071</v>
       </c>
       <c r="I39">
-        <v>0.01281728262817283</v>
+        <v>0.01668652622166448</v>
       </c>
       <c r="J39">
-        <v>0.0001790456794706237</v>
+        <v>-0.0007547865236843652</v>
       </c>
       <c r="K39">
-        <v>-0.01857585696575857</v>
+        <v>0.02460592819696763</v>
       </c>
       <c r="L39">
-        <v>-0.01857585696575857</v>
+        <v>0.02460592819696763</v>
       </c>
       <c r="M39">
-        <v>-0.01857585696575857</v>
+        <v>0.02460592819696763</v>
       </c>
       <c r="O39">
-        <v>-0.01857585696575857</v>
+        <v>0.02460592819696763</v>
       </c>
       <c r="P39">
-        <v>0.01808185370481854</v>
+        <v>-0.02119402718271918</v>
       </c>
       <c r="Q39">
-        <v>-0.0115472798834728</v>
+        <v>0.0130574592587103</v>
       </c>
       <c r="R39">
-        <v>-0.0115472798834728</v>
+        <v>0.0130574592587103</v>
       </c>
       <c r="S39">
-        <v>-0.0115472798834728</v>
+        <v>0.0130574592587103</v>
       </c>
       <c r="T39">
-        <v>-0.0115472798834728</v>
+        <v>0.0130574592587103</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>-0.005282545528825456</v>
+        <v>0.001341444630335073</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.00962075250969926</v>
       </c>
       <c r="F40">
-        <v>0.01582930478629305</v>
+        <v>-0.002729330081708283</v>
       </c>
       <c r="G40">
-        <v>-0.01311451241914512</v>
+        <v>0.003650720049230001</v>
       </c>
       <c r="I40">
-        <v>-0.00387098703870987</v>
+        <v>-0.01837557973243094</v>
       </c>
       <c r="J40">
-        <v>0.007365413648800834</v>
+        <v>0.003669637883290262</v>
       </c>
       <c r="K40">
-        <v>-0.02246567525665675</v>
+        <v>-0.0006903583232868489</v>
       </c>
       <c r="L40">
-        <v>-0.02246567525665675</v>
+        <v>-0.0006903583232868489</v>
       </c>
       <c r="M40">
-        <v>-0.02246567525665675</v>
+        <v>-0.0006903583232868489</v>
       </c>
       <c r="O40">
-        <v>-0.02246567525665675</v>
+        <v>-0.0006903583232868489</v>
       </c>
       <c r="P40">
-        <v>0.01413958666539587</v>
+        <v>-0.002876246904316358</v>
       </c>
       <c r="Q40">
-        <v>-0.01527799905277999</v>
+        <v>-0.001361869263466707</v>
       </c>
       <c r="R40">
-        <v>-0.01527799905277999</v>
+        <v>-0.001361869263466707</v>
       </c>
       <c r="S40">
-        <v>-0.01527799905277999</v>
+        <v>-0.001361869263466707</v>
       </c>
       <c r="T40">
-        <v>-0.01527799905277999</v>
+        <v>-0.001361869263466707</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>-0.07673949914339499</v>
+        <v>-0.07491545528774152</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.002546723336667552</v>
       </c>
       <c r="F41">
-        <v>-0.01123790392037904</v>
+        <v>-0.03406964891515077</v>
       </c>
       <c r="G41">
-        <v>0.01171293880512939</v>
+        <v>0.03550020383594069</v>
       </c>
       <c r="I41">
-        <v>-0.0191088402590884</v>
+        <v>0.01370633046416142</v>
       </c>
       <c r="J41">
-        <v>0.002512809991928549</v>
+        <v>0.01818432656329566</v>
       </c>
       <c r="K41">
-        <v>0.0007747317677473177</v>
+        <v>0.006162387025974798</v>
       </c>
       <c r="L41">
-        <v>0.0007747317677473177</v>
+        <v>0.006162387025974798</v>
       </c>
       <c r="M41">
-        <v>0.0007747317677473177</v>
+        <v>0.006162387025974798</v>
       </c>
       <c r="O41">
-        <v>0.0007747317677473177</v>
+        <v>0.006162387025974798</v>
       </c>
       <c r="P41">
-        <v>-0.01125014531250145</v>
+        <v>-0.03575202838675045</v>
       </c>
       <c r="Q41">
-        <v>-0.01053281602532816</v>
+        <v>-0.01874263805847872</v>
       </c>
       <c r="R41">
-        <v>-0.01053281602532816</v>
+        <v>-0.01874263805847872</v>
       </c>
       <c r="S41">
-        <v>-0.01053281602532816</v>
+        <v>-0.01874263805847872</v>
       </c>
       <c r="T41">
-        <v>-0.01053281602532816</v>
+        <v>-0.01874263805847872</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>

--- a/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -115,7 +115,7 @@
     <t>Stream-cellulosic ethanol</t>
   </si>
   <si>
-    <t>Stream-ethanol</t>
+    <t>Stream-advanced ethanol</t>
   </si>
   <si>
     <t>Stream-biodiesel</t>
